--- a/File Naskah/File Skripsi/hasil pengujian training.xlsx
+++ b/File Naskah/File Skripsi/hasil pengujian training.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SKRIPSI\Skripsi\File Naskah\File Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B002C849-E4C0-43FA-99F2-06EAFF0CE861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A3EC55-8BED-4441-8DEE-99F229616743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6E07EE4A-E083-4B73-A265-D447A504391A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6E07EE4A-E083-4B73-A265-D447A504391A}"/>
   </bookViews>
   <sheets>
     <sheet name="ADAM" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="405">
   <si>
     <t>Fold</t>
   </si>
@@ -395,13 +395,871 @@
   </si>
   <si>
     <t>1981.51</t>
+  </si>
+  <si>
+    <t>572.97</t>
+  </si>
+  <si>
+    <t>0.9813</t>
+  </si>
+  <si>
+    <t>0.9814</t>
+  </si>
+  <si>
+    <t>527.99</t>
+  </si>
+  <si>
+    <t>563.46</t>
+  </si>
+  <si>
+    <t>1872.01</t>
+  </si>
+  <si>
+    <t>0.9888</t>
+  </si>
+  <si>
+    <t>0.9890</t>
+  </si>
+  <si>
+    <t>1843.87</t>
+  </si>
+  <si>
+    <t>0.9901</t>
+  </si>
+  <si>
+    <t>1824.93</t>
+  </si>
+  <si>
+    <t>608.22</t>
+  </si>
+  <si>
+    <t>0.9780</t>
+  </si>
+  <si>
+    <t>0.9794</t>
+  </si>
+  <si>
+    <t>0.9771</t>
+  </si>
+  <si>
+    <t>580.78</t>
+  </si>
+  <si>
+    <t>585.96</t>
+  </si>
+  <si>
+    <t>577.98</t>
+  </si>
+  <si>
+    <t>0.9810</t>
+  </si>
+  <si>
+    <t>0.9818</t>
+  </si>
+  <si>
+    <t>583.17</t>
+  </si>
+  <si>
+    <t>0.9907</t>
+  </si>
+  <si>
+    <t>976.64</t>
+  </si>
+  <si>
+    <t>0.9785</t>
+  </si>
+  <si>
+    <t>1003.52</t>
+  </si>
+  <si>
+    <t>976.48</t>
+  </si>
+  <si>
+    <t>0.9905</t>
+  </si>
+  <si>
+    <t>0.9915</t>
+  </si>
+  <si>
+    <t>0.9898</t>
+  </si>
+  <si>
+    <t>973.72</t>
+  </si>
+  <si>
+    <t>985.76</t>
+  </si>
+  <si>
+    <t>0.9904</t>
+  </si>
+  <si>
+    <t>0.9908</t>
+  </si>
+  <si>
+    <t>1920.81</t>
+  </si>
+  <si>
+    <t>0.9688</t>
+  </si>
+  <si>
+    <t>0.9687</t>
+  </si>
+  <si>
+    <t>0.9706</t>
+  </si>
+  <si>
+    <t>1853.51</t>
+  </si>
+  <si>
+    <t>1892.16</t>
+  </si>
+  <si>
+    <t>1891.39</t>
+  </si>
+  <si>
+    <t>1882.47</t>
+  </si>
+  <si>
+    <t>646.84</t>
+  </si>
+  <si>
+    <t>639.78</t>
+  </si>
+  <si>
+    <t>626.03</t>
+  </si>
+  <si>
+    <t>0.9848</t>
+  </si>
+  <si>
+    <t>0.9802</t>
+  </si>
+  <si>
+    <t>632.94</t>
+  </si>
+  <si>
+    <t>0.9959</t>
+  </si>
+  <si>
+    <t>635.77</t>
+  </si>
+  <si>
+    <t>595.36</t>
+  </si>
+  <si>
+    <t>592.86</t>
+  </si>
+  <si>
+    <t>980.81</t>
+  </si>
+  <si>
+    <t>0.9823</t>
+  </si>
+  <si>
+    <t>971.00</t>
+  </si>
+  <si>
+    <t>0.9790</t>
+  </si>
+  <si>
+    <t>999.07</t>
+  </si>
+  <si>
+    <t>0.9954</t>
+  </si>
+  <si>
+    <t>952.50</t>
+  </si>
+  <si>
+    <t>1001.94</t>
+  </si>
+  <si>
+    <t>980.84</t>
+  </si>
+  <si>
+    <t>991.53</t>
+  </si>
+  <si>
+    <t>1580.14</t>
+  </si>
+  <si>
+    <t>0.9921</t>
+  </si>
+  <si>
+    <t>1524.02</t>
+  </si>
+  <si>
+    <t>0.9910</t>
+  </si>
+  <si>
+    <t>1515.46</t>
+  </si>
+  <si>
+    <t>1510.66</t>
+  </si>
+  <si>
+    <t>1523.11</t>
+  </si>
+  <si>
+    <t>0.9951</t>
+  </si>
+  <si>
+    <t>1513.67</t>
+  </si>
+  <si>
+    <t>1517.22</t>
+  </si>
+  <si>
+    <t>603.68</t>
+  </si>
+  <si>
+    <t>0.6161</t>
+  </si>
+  <si>
+    <t>0.6157</t>
+  </si>
+  <si>
+    <t>0.6174</t>
+  </si>
+  <si>
+    <t>0.6167</t>
+  </si>
+  <si>
+    <t>600.09</t>
+  </si>
+  <si>
+    <t>0.7955</t>
+  </si>
+  <si>
+    <t>0.7953</t>
+  </si>
+  <si>
+    <t>0.7965</t>
+  </si>
+  <si>
+    <t>577.15</t>
+  </si>
+  <si>
+    <t>0.8837</t>
+  </si>
+  <si>
+    <t>0.8835</t>
+  </si>
+  <si>
+    <t>0.8885</t>
+  </si>
+  <si>
+    <t>0.8849</t>
+  </si>
+  <si>
+    <t>1930.73</t>
+  </si>
+  <si>
+    <t>0.6948</t>
+  </si>
+  <si>
+    <t>0.6765</t>
+  </si>
+  <si>
+    <t>0.7924</t>
+  </si>
+  <si>
+    <t>0.7104</t>
+  </si>
+  <si>
+    <t>1914.06</t>
+  </si>
+  <si>
+    <t>0.9043</t>
+  </si>
+  <si>
+    <t>0.9035</t>
+  </si>
+  <si>
+    <t>0.9150</t>
+  </si>
+  <si>
+    <t>0.9030</t>
+  </si>
+  <si>
+    <t>1911.60</t>
+  </si>
+  <si>
+    <t>0.9212</t>
+  </si>
+  <si>
+    <t>0.9202</t>
+  </si>
+  <si>
+    <t>0.9319</t>
+  </si>
+  <si>
+    <t>0.9183</t>
+  </si>
+  <si>
+    <t>969.38</t>
+  </si>
+  <si>
+    <t>0.8406</t>
+  </si>
+  <si>
+    <t>0.8401</t>
+  </si>
+  <si>
+    <t>0.8522</t>
+  </si>
+  <si>
+    <t>0.8440</t>
+  </si>
+  <si>
+    <t>996.15</t>
+  </si>
+  <si>
+    <t>0.9031</t>
+  </si>
+  <si>
+    <t>0.9029</t>
+  </si>
+  <si>
+    <t>0.9127</t>
+  </si>
+  <si>
+    <t>0.9062</t>
+  </si>
+  <si>
+    <t>969.30</t>
+  </si>
+  <si>
+    <t>0.9656</t>
+  </si>
+  <si>
+    <t>0.9655</t>
+  </si>
+  <si>
+    <t>0.9684</t>
+  </si>
+  <si>
+    <t>0.9650</t>
+  </si>
+  <si>
+    <t>976.22</t>
+  </si>
+  <si>
+    <t>0.9594</t>
+  </si>
+  <si>
+    <t>0.9592</t>
+  </si>
+  <si>
+    <t>0.9631</t>
+  </si>
+  <si>
+    <t>0.9586</t>
+  </si>
+  <si>
+    <t>977.07</t>
+  </si>
+  <si>
+    <t>0.9654</t>
+  </si>
+  <si>
+    <t>0.9689</t>
+  </si>
+  <si>
+    <t>0.9643</t>
+  </si>
+  <si>
+    <t>603.10</t>
+  </si>
+  <si>
+    <t>0.3063</t>
+  </si>
+  <si>
+    <t>0.2754</t>
+  </si>
+  <si>
+    <t>0.2663</t>
+  </si>
+  <si>
+    <t>0.3025</t>
+  </si>
+  <si>
+    <t>575.32</t>
+  </si>
+  <si>
+    <t>0.3844</t>
+  </si>
+  <si>
+    <t>0.3720</t>
+  </si>
+  <si>
+    <t>0.3787</t>
+  </si>
+  <si>
+    <t>0.3913</t>
+  </si>
+  <si>
+    <t>566.63</t>
+  </si>
+  <si>
+    <t>0.5938</t>
+  </si>
+  <si>
+    <t>0.5934</t>
+  </si>
+  <si>
+    <t>0.5948</t>
+  </si>
+  <si>
+    <t>0.5942</t>
+  </si>
+  <si>
+    <t>579.46</t>
+  </si>
+  <si>
+    <t>0.7875</t>
+  </si>
+  <si>
+    <t>0.7867</t>
+  </si>
+  <si>
+    <t>0.8056</t>
+  </si>
+  <si>
+    <t>0.7956</t>
+  </si>
+  <si>
+    <t>587.69</t>
+  </si>
+  <si>
+    <t>0.8438</t>
+  </si>
+  <si>
+    <t>0.8435</t>
+  </si>
+  <si>
+    <t>0.8432</t>
+  </si>
+  <si>
+    <t>1918.78</t>
+  </si>
+  <si>
+    <t>0.7750</t>
+  </si>
+  <si>
+    <t>0.7679</t>
+  </si>
+  <si>
+    <t>0.7881</t>
+  </si>
+  <si>
+    <t>0.7666</t>
+  </si>
+  <si>
+    <t>1918.57</t>
+  </si>
+  <si>
+    <t>0.9187</t>
+  </si>
+  <si>
+    <t>0.9178</t>
+  </si>
+  <si>
+    <t>0.9286</t>
+  </si>
+  <si>
+    <t>0.9161</t>
+  </si>
+  <si>
+    <t>1903.79</t>
+  </si>
+  <si>
+    <t>0.9000</t>
+  </si>
+  <si>
+    <t>0.8997</t>
+  </si>
+  <si>
+    <t>0.9135</t>
+  </si>
+  <si>
+    <t>0.9042</t>
+  </si>
+  <si>
+    <t>1946.69</t>
+  </si>
+  <si>
+    <t>0.9125</t>
+  </si>
+  <si>
+    <t>0.9124</t>
+  </si>
+  <si>
+    <t>0.9213</t>
+  </si>
+  <si>
+    <t>0.9176</t>
+  </si>
+  <si>
+    <t>1931.27</t>
+  </si>
+  <si>
+    <t>0.9469</t>
+  </si>
+  <si>
+    <t>0.9468</t>
+  </si>
+  <si>
+    <t>0.9508</t>
+  </si>
+  <si>
+    <t>615.58</t>
+  </si>
+  <si>
+    <t>0.8384</t>
+  </si>
+  <si>
+    <t>0.8382</t>
+  </si>
+  <si>
+    <t>0.8413</t>
+  </si>
+  <si>
+    <t>0.8390</t>
+  </si>
+  <si>
+    <t>586.69</t>
+  </si>
+  <si>
+    <t>0.8777</t>
+  </si>
+  <si>
+    <t>0.8776</t>
+  </si>
+  <si>
+    <t>0.8779</t>
+  </si>
+  <si>
+    <t>0.8775</t>
+  </si>
+  <si>
+    <t>580.33</t>
+  </si>
+  <si>
+    <t>0.8952</t>
+  </si>
+  <si>
+    <t>0.8953</t>
+  </si>
+  <si>
+    <t>587.32</t>
+  </si>
+  <si>
+    <t>0.9079</t>
+  </si>
+  <si>
+    <t>0.9076</t>
+  </si>
+  <si>
+    <t>0.9109</t>
+  </si>
+  <si>
+    <t>0.9072</t>
+  </si>
+  <si>
+    <t>591.50</t>
+  </si>
+  <si>
+    <t>0.9123</t>
+  </si>
+  <si>
+    <t>0.9180</t>
+  </si>
+  <si>
+    <t>591.08</t>
+  </si>
+  <si>
+    <t>0.9386</t>
+  </si>
+  <si>
+    <t>0.9380</t>
+  </si>
+  <si>
+    <t>0.9388</t>
+  </si>
+  <si>
+    <t>0.9373</t>
+  </si>
+  <si>
+    <t>584.90</t>
+  </si>
+  <si>
+    <t>1187.41</t>
+  </si>
+  <si>
+    <t>0.7467</t>
+  </si>
+  <si>
+    <t>0.7426</t>
+  </si>
+  <si>
+    <t>0.7863</t>
+  </si>
+  <si>
+    <t>0.7583</t>
+  </si>
+  <si>
+    <t>1205.36</t>
+  </si>
+  <si>
+    <t>0.8950</t>
+  </si>
+  <si>
+    <t>0.8972</t>
+  </si>
+  <si>
+    <t>1040.41</t>
+  </si>
+  <si>
+    <t>0.8341</t>
+  </si>
+  <si>
+    <t>0.8329</t>
+  </si>
+  <si>
+    <t>0.8415</t>
+  </si>
+  <si>
+    <t>0.8581</t>
+  </si>
+  <si>
+    <t>1039.93</t>
+  </si>
+  <si>
+    <t>0.9083</t>
+  </si>
+  <si>
+    <t>0.9069</t>
+  </si>
+  <si>
+    <t>0.9158</t>
+  </si>
+  <si>
+    <t>1086.09</t>
+  </si>
+  <si>
+    <t>0.9474</t>
+  </si>
+  <si>
+    <t>0.9473</t>
+  </si>
+  <si>
+    <t>0.9502</t>
+  </si>
+  <si>
+    <t>0.9481</t>
+  </si>
+  <si>
+    <t>1012.70</t>
+  </si>
+  <si>
+    <t>0.9430</t>
+  </si>
+  <si>
+    <t>0.9428</t>
+  </si>
+  <si>
+    <t>0.9471</t>
+  </si>
+  <si>
+    <t>1016.12</t>
+  </si>
+  <si>
+    <t>0.9429</t>
+  </si>
+  <si>
+    <t>0.9449</t>
+  </si>
+  <si>
+    <t>0.9427</t>
+  </si>
+  <si>
+    <t>1948.19</t>
+  </si>
+  <si>
+    <t>0.8122</t>
+  </si>
+  <si>
+    <t>0.8108</t>
+  </si>
+  <si>
+    <t>0.8099</t>
+  </si>
+  <si>
+    <t>0.8142</t>
+  </si>
+  <si>
+    <t>1890.39</t>
+  </si>
+  <si>
+    <t>0.9039</t>
+  </si>
+  <si>
+    <t>0.9038</t>
+  </si>
+  <si>
+    <t>0.9100</t>
+  </si>
+  <si>
+    <t>0.9065</t>
+  </si>
+  <si>
+    <t>1918.21</t>
+  </si>
+  <si>
+    <t>0.9520</t>
+  </si>
+  <si>
+    <t>0.9516</t>
+  </si>
+  <si>
+    <t>0.9549</t>
+  </si>
+  <si>
+    <t>0.9501</t>
+  </si>
+  <si>
+    <t>1950.74</t>
+  </si>
+  <si>
+    <t>0.9345</t>
+  </si>
+  <si>
+    <t>0.9336</t>
+  </si>
+  <si>
+    <t>0.9425</t>
+  </si>
+  <si>
+    <t>0.9311</t>
+  </si>
+  <si>
+    <t>1942.36</t>
+  </si>
+  <si>
+    <t>0.9750</t>
+  </si>
+  <si>
+    <t>1957.27</t>
+  </si>
+  <si>
+    <t>0.9211</t>
+  </si>
+  <si>
+    <t>0.9208</t>
+  </si>
+  <si>
+    <t>0.9217</t>
+  </si>
+  <si>
+    <t>0.9291</t>
+  </si>
+  <si>
+    <t>1944.66</t>
+  </si>
+  <si>
+    <t>0.9605</t>
+  </si>
+  <si>
+    <t>0.9603</t>
+  </si>
+  <si>
+    <t>0.9625</t>
+  </si>
+  <si>
+    <t>1001.41</t>
+  </si>
+  <si>
+    <t>0.9887</t>
+  </si>
+  <si>
+    <t>0.9886</t>
+  </si>
+  <si>
+    <t>0.9889</t>
+  </si>
+  <si>
+    <t>946.25</t>
+  </si>
+  <si>
+    <t>0.9850</t>
+  </si>
+  <si>
+    <t>0.9857</t>
+  </si>
+  <si>
+    <t>0.9847</t>
+  </si>
+  <si>
+    <t>929.85</t>
+  </si>
+  <si>
+    <t>0.9928</t>
+  </si>
+  <si>
+    <t>0.9923</t>
+  </si>
+  <si>
+    <t>938.66</t>
+  </si>
+  <si>
+    <t>0.5094</t>
+  </si>
+  <si>
+    <t>0.5087</t>
+  </si>
+  <si>
+    <t>0.5140</t>
+  </si>
+  <si>
+    <t>0.5138</t>
+  </si>
+  <si>
+    <t>890.81</t>
+  </si>
+  <si>
+    <t>0.7223</t>
+  </si>
+  <si>
+    <t>0.7111</t>
+  </si>
+  <si>
+    <t>0.7605</t>
+  </si>
+  <si>
+    <t>0.7212</t>
+  </si>
+  <si>
+    <t>843.75</t>
+  </si>
+  <si>
+    <t>0.7054</t>
+  </si>
+  <si>
+    <t>0.6913</t>
+  </si>
+  <si>
+    <t>0.7958</t>
+  </si>
+  <si>
+    <t>0.7238</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,8 +1273,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,6 +1290,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,7 +1332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -473,30 +1343,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -811,12 +1707,55 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="1">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{69E0B632-21EF-4431-9E29-76F8DF38840D}">
+  <we:reference id="wa200005502" version="1.0.0.11" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA200005502" version="1.0.0.11" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties>
+    <we:property name="docId" value="&quot;d9ytIaEc50QSd_7z--z32&quot;"/>
+  </we:properties>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_GPT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_LIST</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_HLIST</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_CLASSIFY</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_TRANSLATE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_EXTRACT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_TAG</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_CONVERT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_FORMAT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_SUMMARIZE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_TABLE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_FILL</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_SPLIT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_HSPLIT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_EDIT</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFBAD58-1D9D-47F5-97B2-84BBF49FF353}">
   <dimension ref="B3:K79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView showGridLines="0" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72:H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,7 +1773,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C3" s="9">
+      <c r="C3" s="5">
         <v>30</v>
       </c>
     </row>
@@ -919,7 +1858,7 @@
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="4">
+      <c r="C9" s="1">
         <v>50</v>
       </c>
     </row>
@@ -962,7 +1901,7 @@
       <c r="H11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="4"/>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
@@ -1005,7 +1944,7 @@
       </c>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="4">
+      <c r="C15" s="1">
         <v>100</v>
       </c>
     </row>
@@ -1090,19 +2029,19 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C23" s="9">
+      <c r="C23" s="5">
         <v>30</v>
       </c>
     </row>
@@ -1227,15 +2166,15 @@
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C31" s="4">
+      <c r="C31" s="1">
         <v>50</v>
       </c>
     </row>
@@ -1263,19 +2202,19 @@
       <c r="C33" s="1">
         <v>1</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1283,19 +2222,19 @@
       <c r="C34" s="1">
         <v>2</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1303,19 +2242,19 @@
       <c r="C35" s="1">
         <v>3</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1323,19 +2262,19 @@
       <c r="C36" s="1">
         <v>4</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1343,24 +2282,24 @@
       <c r="C37" s="2">
         <v>5</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="H37" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C39" s="4">
+      <c r="C39" s="1">
         <v>100</v>
       </c>
     </row>
@@ -1388,19 +2327,19 @@
       <c r="C41" s="1">
         <v>1</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G41" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1408,19 +2347,19 @@
       <c r="C42" s="1">
         <v>2</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="1" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1428,19 +2367,19 @@
       <c r="C43" s="1">
         <v>3</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E43" s="7">
-        <v>10000</v>
-      </c>
-      <c r="F43" s="7">
-        <v>10000</v>
-      </c>
-      <c r="G43" s="7">
-        <v>10000</v>
-      </c>
-      <c r="H43" s="7">
+      <c r="E43" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F43" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G43" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H43" s="1">
         <v>10000</v>
       </c>
     </row>
@@ -1448,19 +2387,19 @@
       <c r="C44" s="1">
         <v>4</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E44" s="7">
-        <v>10000</v>
-      </c>
-      <c r="F44" s="7">
-        <v>10000</v>
-      </c>
-      <c r="G44" s="7">
-        <v>10000</v>
-      </c>
-      <c r="H44" s="7">
+      <c r="E44" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F44" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G44" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H44" s="1">
         <v>10000</v>
       </c>
     </row>
@@ -1468,36 +2407,36 @@
       <c r="C45" s="2">
         <v>5</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H45" s="8" t="s">
+      <c r="H45" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C49" s="9">
+      <c r="C49" s="5">
         <v>30</v>
       </c>
     </row>
@@ -1628,16 +2567,16 @@
       <c r="D56" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E56" s="7">
-        <v>10000</v>
-      </c>
-      <c r="F56" s="7">
-        <v>10000</v>
-      </c>
-      <c r="G56" s="7">
-        <v>10000</v>
-      </c>
-      <c r="H56" s="7">
+      <c r="E56" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F56" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G56" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H56" s="1">
         <v>10000</v>
       </c>
     </row>
@@ -1648,367 +2587,346 @@
       <c r="D57" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E57" s="8">
-        <v>10000</v>
-      </c>
-      <c r="F57" s="8">
-        <v>10000</v>
-      </c>
-      <c r="G57" s="8">
-        <v>10000</v>
-      </c>
-      <c r="H57" s="8">
+      <c r="E57" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F57" s="2">
+        <v>10000</v>
+      </c>
+      <c r="G57" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H57" s="2">
         <v>10000</v>
       </c>
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C60" s="4">
+      <c r="C60" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="61" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="E61" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F61" s="10" t="s">
+      <c r="F61" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G61" s="10" t="s">
+      <c r="G61" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H61" s="10" t="s">
+      <c r="H61" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C62" s="7">
-        <v>1</v>
-      </c>
-      <c r="D62" s="7" t="s">
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F62" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="G62" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H62" s="7" t="s">
+      <c r="H62" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C63" s="7">
+      <c r="C63" s="1">
         <v>2</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F63" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="G63" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H63" s="7" t="s">
+      <c r="H63" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="64" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C64" s="7">
+      <c r="C64" s="1">
         <v>3</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="G64" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H64" s="7" t="s">
+      <c r="H64" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="65" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C65" s="7">
+      <c r="C65" s="1">
         <v>4</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="G65" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H65" s="7" t="s">
+      <c r="H65" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="66" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C66" s="7">
+      <c r="C66" s="1">
         <v>5</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="G66" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H66" s="7" t="s">
+      <c r="H66" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="67" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C67" s="7">
+      <c r="C67" s="1">
         <v>6</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E67" s="7">
-        <v>10000</v>
-      </c>
-      <c r="F67" s="7">
-        <v>10000</v>
-      </c>
-      <c r="G67" s="7">
-        <v>10000</v>
-      </c>
-      <c r="H67" s="7">
+      <c r="E67" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F67" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G67" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H67" s="1">
         <v>10000</v>
       </c>
     </row>
     <row r="68" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C68" s="8">
+      <c r="C68" s="2">
         <v>7</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E68" s="8">
-        <v>10000</v>
-      </c>
-      <c r="F68" s="8">
-        <v>10000</v>
-      </c>
-      <c r="G68" s="8">
-        <v>10000</v>
-      </c>
-      <c r="H68" s="8">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-    </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
+      <c r="E68" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F68" s="2">
+        <v>10000</v>
+      </c>
+      <c r="G68" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H68" s="2">
+        <v>10000</v>
+      </c>
     </row>
     <row r="71" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C71" s="12">
+      <c r="C71" s="1">
         <v>100</v>
       </c>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
     </row>
     <row r="72" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C72" s="10" t="s">
+      <c r="C72" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D72" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E72" s="10" t="s">
+      <c r="E72" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="10" t="s">
+      <c r="F72" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G72" s="10" t="s">
+      <c r="G72" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H72" s="10" t="s">
+      <c r="H72" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C73" s="13">
-        <v>1</v>
-      </c>
-      <c r="D73" s="13" t="s">
+      <c r="C73" s="1">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E73" s="13" t="s">
+      <c r="E73" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F73" s="13" t="s">
+      <c r="F73" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G73" s="13" t="s">
+      <c r="G73" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H73" s="13" t="s">
+      <c r="H73" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="74" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C74" s="13">
+      <c r="C74" s="1">
         <v>2</v>
       </c>
-      <c r="D74" s="13" t="s">
+      <c r="D74" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E74" s="13" t="s">
+      <c r="E74" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F74" s="13" t="s">
+      <c r="F74" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G74" s="13" t="s">
+      <c r="G74" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H74" s="13" t="s">
+      <c r="H74" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="75" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C75" s="13">
+      <c r="C75" s="1">
         <v>3</v>
       </c>
-      <c r="D75" s="13" t="s">
+      <c r="D75" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E75" s="13" t="s">
+      <c r="E75" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F75" s="13" t="s">
+      <c r="F75" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G75" s="13" t="s">
+      <c r="G75" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H75" s="13" t="s">
+      <c r="H75" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="76" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C76" s="13">
+      <c r="C76" s="1">
         <v>4</v>
       </c>
-      <c r="D76" s="13" t="s">
+      <c r="D76" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E76" s="13">
-        <v>10000</v>
-      </c>
-      <c r="F76" s="13">
-        <v>10000</v>
-      </c>
-      <c r="G76" s="13">
-        <v>10000</v>
-      </c>
-      <c r="H76" s="13">
+      <c r="E76" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F76" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G76" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H76" s="1">
         <v>10000</v>
       </c>
     </row>
     <row r="77" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C77" s="13">
+      <c r="C77" s="1">
         <v>5</v>
       </c>
-      <c r="D77" s="13" t="s">
+      <c r="D77" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E77" s="13">
-        <v>10000</v>
-      </c>
-      <c r="F77" s="13">
-        <v>10000</v>
-      </c>
-      <c r="G77" s="13">
-        <v>10000</v>
-      </c>
-      <c r="H77" s="13">
+      <c r="E77" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F77" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G77" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H77" s="1">
         <v>10000</v>
       </c>
     </row>
     <row r="78" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C78" s="13">
+      <c r="C78" s="1">
         <v>6</v>
       </c>
-      <c r="D78" s="13" t="s">
+      <c r="D78" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E78" s="13">
-        <v>10000</v>
-      </c>
-      <c r="F78" s="13">
-        <v>10000</v>
-      </c>
-      <c r="G78" s="13">
-        <v>10000</v>
-      </c>
-      <c r="H78" s="13">
+      <c r="E78" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F78" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G78" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H78" s="1">
         <v>10000</v>
       </c>
     </row>
     <row r="79" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C79" s="8">
+      <c r="C79" s="2">
         <v>7</v>
       </c>
-      <c r="D79" s="8" t="s">
+      <c r="D79" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E79" s="8">
-        <v>10000</v>
-      </c>
-      <c r="F79" s="8">
-        <v>10000</v>
-      </c>
-      <c r="G79" s="8">
-        <v>10000</v>
-      </c>
-      <c r="H79" s="8">
+      <c r="E79" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F79" s="2">
+        <v>10000</v>
+      </c>
+      <c r="G79" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H79" s="2">
         <v>10000</v>
       </c>
     </row>
@@ -2019,26 +2937,2347 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D19BA4-5C5F-4657-8024-88F3005F1BF2}">
-  <dimension ref="A1"/>
+  <dimension ref="C4:R60"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView showGridLines="0" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53:Q60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="5">
+        <v>30</v>
+      </c>
+      <c r="L4" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="3:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="6">
+        <v>3</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="L9" s="8">
+        <v>4</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="L10" s="9">
+        <v>5</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C12" s="17">
+        <v>50</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="L12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="3:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="C13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C14" s="20">
+        <v>1</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C15" s="20">
+        <v>2</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="L15" s="1">
+        <v>2</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C16" s="21">
+        <v>3</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="L16" s="6">
+        <v>3</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L17" s="8">
+        <v>4</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L18" s="9">
+        <v>5</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C20" s="5">
+        <v>100</v>
+      </c>
+      <c r="L20" s="10">
+        <v>100</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+    </row>
+    <row r="21" spans="3:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="C21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L22" s="12">
+        <v>1</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="O22" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="P22" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q22" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L23" s="12">
+        <v>2</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="O23" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q23" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C24" s="2">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L24" s="13">
+        <v>3</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="O24" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q24" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L25" s="14">
+        <v>4</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="N25" s="14">
+        <v>10000</v>
+      </c>
+      <c r="O25" s="14">
+        <v>10000</v>
+      </c>
+      <c r="P25" s="14">
+        <v>10000</v>
+      </c>
+      <c r="Q25" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L26" s="15">
+        <v>5</v>
+      </c>
+      <c r="M26" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="N26" s="15">
+        <v>10000</v>
+      </c>
+      <c r="O26" s="15">
+        <v>10000</v>
+      </c>
+      <c r="P26" s="15">
+        <v>10000</v>
+      </c>
+      <c r="Q26" s="15">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="L30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L32" s="1">
+        <v>2</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="L33" s="1">
+        <v>3</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="L34" s="1">
+        <v>4</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="L35" s="1">
+        <v>5</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="L36" s="1">
+        <v>6</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="L37" s="2">
+        <v>7</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+    </row>
+    <row r="41" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="10:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="L42" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N42" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O42" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="P42" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q42" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="L43" s="12">
+        <v>1</v>
+      </c>
+      <c r="M43" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="N43" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="O43" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="P43" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="L44" s="12">
+        <v>2</v>
+      </c>
+      <c r="M44" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="N44" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O44" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="P44" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q44" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="L45" s="12">
+        <v>3</v>
+      </c>
+      <c r="M45" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="N45" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="O45" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="P45" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q45" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="L46" s="12">
+        <v>4</v>
+      </c>
+      <c r="M46" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="N46" s="12">
+        <v>10000</v>
+      </c>
+      <c r="O46" s="12">
+        <v>10000</v>
+      </c>
+      <c r="P46" s="12">
+        <v>10000</v>
+      </c>
+      <c r="Q46" s="12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="47" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="L47" s="12">
+        <v>5</v>
+      </c>
+      <c r="M47" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="N47" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="O47" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="P47" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q47" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="L48" s="12">
+        <v>6</v>
+      </c>
+      <c r="M48" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="N48" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O48" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P48" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q48" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="L49" s="23">
+        <v>7</v>
+      </c>
+      <c r="M49" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="N49" s="23">
+        <v>10000</v>
+      </c>
+      <c r="O49" s="23">
+        <v>10000</v>
+      </c>
+      <c r="P49" s="23">
+        <v>10000</v>
+      </c>
+      <c r="Q49" s="23">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="51" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+    </row>
+    <row r="52" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="L52" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="10:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="L53" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M53" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N53" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="O53" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="P53" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q53" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="L54" s="12">
+        <v>1</v>
+      </c>
+      <c r="M54" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="N54" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="O54" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P54" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q54" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="55" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="L55" s="12">
+        <v>2</v>
+      </c>
+      <c r="M55" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="N55" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="O55" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="P55" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q55" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="56" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="L56" s="12">
+        <v>3</v>
+      </c>
+      <c r="M56" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="N56" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="O56" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="P56" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q56" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="L57" s="12">
+        <v>4</v>
+      </c>
+      <c r="M57" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="N57" s="12">
+        <v>10000</v>
+      </c>
+      <c r="O57" s="12">
+        <v>10000</v>
+      </c>
+      <c r="P57" s="12">
+        <v>10000</v>
+      </c>
+      <c r="Q57" s="12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="58" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="L58" s="12">
+        <v>5</v>
+      </c>
+      <c r="M58" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="N58" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="O58" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="P58" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q58" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="L59" s="12">
+        <v>6</v>
+      </c>
+      <c r="M59" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="N59" s="12">
+        <v>10000</v>
+      </c>
+      <c r="O59" s="12">
+        <v>10000</v>
+      </c>
+      <c r="P59" s="12">
+        <v>10000</v>
+      </c>
+      <c r="Q59" s="12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="60" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="L60" s="23">
+        <v>7</v>
+      </c>
+      <c r="M60" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="N60" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O60" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="P60" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q60" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D263BBA0-87D3-4488-80DF-E56D75C8DC3D}">
-  <dimension ref="A1"/>
+  <dimension ref="C6:J95"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="T65" sqref="T65"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="17">
+        <v>50</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="20">
+        <v>1</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D17" s="20">
+        <v>2</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D18" s="21">
+        <v>3</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D22" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D26" s="2">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D36" s="6">
+        <v>3</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D37" s="8">
+        <v>4</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D38" s="9">
+        <v>5</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+    </row>
+    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D46" s="1">
+        <v>2</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D47" s="6">
+        <v>3</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D48" s="8">
+        <v>4</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D49" s="9">
+        <v>5</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+    </row>
+    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D54" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D56" s="1">
+        <v>2</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="57" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D57" s="6">
+        <v>3</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D58" s="8">
+        <v>4</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D59" s="9">
+        <v>5</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="64" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+    </row>
+    <row r="65" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D66" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D67" s="6">
+        <v>1</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="68" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D68" s="6">
+        <v>2</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="69" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D69" s="6">
+        <v>3</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="70" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D70" s="6">
+        <v>4</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="I70" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="71" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D71" s="6">
+        <v>5</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="72" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D72" s="6">
+        <v>6</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="73" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D73" s="7">
+        <v>7</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="76" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D77" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D78" s="6">
+        <v>1</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="I78" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="79" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D79" s="6">
+        <v>2</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="I79" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="80" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D80" s="6">
+        <v>3</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="81" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D81" s="6">
+        <v>4</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="I81" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="82" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D82" s="6">
+        <v>5</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="83" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D83" s="6">
+        <v>6</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="I83" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="84" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D84" s="7">
+        <v>7</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="87" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D88" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D89" s="6">
+        <v>1</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="I89" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="90" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D90" s="6">
+        <v>2</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="I90" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="91" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D91" s="6">
+        <v>3</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="92" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D92" s="6">
+        <v>4</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="I92" s="6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="93" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D93" s="6">
+        <v>5</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D94" s="6">
+        <v>6</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="95" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D95" s="7">
+        <v>7</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/File Naskah/File Skripsi/hasil pengujian training.xlsx
+++ b/File Naskah/File Skripsi/hasil pengujian training.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SKRIPSI\Skripsi\File Naskah\File Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A3EC55-8BED-4441-8DEE-99F229616743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2952AA3-F126-4C94-8CB7-EB035B0FC787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6E07EE4A-E083-4B73-A265-D447A504391A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{6E07EE4A-E083-4B73-A265-D447A504391A}"/>
   </bookViews>
   <sheets>
     <sheet name="ADAM" sheetId="1" r:id="rId1"/>
     <sheet name="RMSprop" sheetId="2" r:id="rId2"/>
     <sheet name="SGD" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="480">
   <si>
     <t>Fold</t>
   </si>
@@ -1253,13 +1254,238 @@
   </si>
   <si>
     <t>0.7238</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Epoch</t>
+  </si>
+  <si>
+    <t>Training Time (s)</t>
+  </si>
+  <si>
+    <t>591.73</t>
+  </si>
+  <si>
+    <t>0.9859</t>
+  </si>
+  <si>
+    <t>604.04</t>
+  </si>
+  <si>
+    <t>557.38</t>
+  </si>
+  <si>
+    <t>965.48</t>
+  </si>
+  <si>
+    <t>989.78</t>
+  </si>
+  <si>
+    <t>981.26</t>
+  </si>
+  <si>
+    <t>410.50</t>
+  </si>
+  <si>
+    <t>400.18</t>
+  </si>
+  <si>
+    <t>413.72</t>
+  </si>
+  <si>
+    <t>RMSprop</t>
+  </si>
+  <si>
+    <t>554.47</t>
+  </si>
+  <si>
+    <t>0.9861</t>
+  </si>
+  <si>
+    <t>548.15</t>
+  </si>
+  <si>
+    <t>576.97</t>
+  </si>
+  <si>
+    <t>925.10</t>
+  </si>
+  <si>
+    <t>0.9897</t>
+  </si>
+  <si>
+    <t>936.68</t>
+  </si>
+  <si>
+    <t>0.9895</t>
+  </si>
+  <si>
+    <t>0.9894</t>
+  </si>
+  <si>
+    <t>928.80</t>
+  </si>
+  <si>
+    <t>0.9930</t>
+  </si>
+  <si>
+    <t>0.9929</t>
+  </si>
+  <si>
+    <t>1763.60</t>
+  </si>
+  <si>
+    <t>1787.60</t>
+  </si>
+  <si>
+    <t>0.9931</t>
+  </si>
+  <si>
+    <t>1830.64</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>576.14</t>
+  </si>
+  <si>
+    <t>0.7823</t>
+  </si>
+  <si>
+    <t>0.7734</t>
+  </si>
+  <si>
+    <t>0.7746</t>
+  </si>
+  <si>
+    <t>0.7755</t>
+  </si>
+  <si>
+    <t>575.26</t>
+  </si>
+  <si>
+    <t>0.8672</t>
+  </si>
+  <si>
+    <t>0.8664</t>
+  </si>
+  <si>
+    <t>0.8669</t>
+  </si>
+  <si>
+    <t>598.25</t>
+  </si>
+  <si>
+    <t>0.8975</t>
+  </si>
+  <si>
+    <t>0.8969</t>
+  </si>
+  <si>
+    <t>907.67</t>
+  </si>
+  <si>
+    <t>0.6691</t>
+  </si>
+  <si>
+    <t>0.6568</t>
+  </si>
+  <si>
+    <t>0.6638</t>
+  </si>
+  <si>
+    <t>0.6673</t>
+  </si>
+  <si>
+    <t>872.19</t>
+  </si>
+  <si>
+    <t>0.7443</t>
+  </si>
+  <si>
+    <t>0.7326</t>
+  </si>
+  <si>
+    <t>0.7423</t>
+  </si>
+  <si>
+    <t>0.7391</t>
+  </si>
+  <si>
+    <t>840.21</t>
+  </si>
+  <si>
+    <t>0.7670</t>
+  </si>
+  <si>
+    <t>0.7574</t>
+  </si>
+  <si>
+    <t>0.7660</t>
+  </si>
+  <si>
+    <t>0.7611</t>
+  </si>
+  <si>
+    <t>1840.04</t>
+  </si>
+  <si>
+    <t>0.7475</t>
+  </si>
+  <si>
+    <t>0.7384</t>
+  </si>
+  <si>
+    <t>1830.69</t>
+  </si>
+  <si>
+    <t>0.7720</t>
+  </si>
+  <si>
+    <t>0.7623</t>
+  </si>
+  <si>
+    <t>0.7691</t>
+  </si>
+  <si>
+    <t>0.7667</t>
+  </si>
+  <si>
+    <t>1863.18</t>
+  </si>
+  <si>
+    <t>0.8294</t>
+  </si>
+  <si>
+    <t>0.8225</t>
+  </si>
+  <si>
+    <t>0.8287</t>
+  </si>
+  <si>
+    <t>0.8245</t>
+  </si>
+  <si>
+    <t>epochs</t>
+  </si>
+  <si>
+    <t>3 fold</t>
+  </si>
+  <si>
+    <t>5 fold</t>
+  </si>
+  <si>
+    <t>7 fold</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1276,6 +1502,18 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF374151"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1300,7 +1538,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1328,11 +1566,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD9D9E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9E3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD9D9E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9E3"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD9D9E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1347,9 +1637,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1359,41 +1646,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1727,6 +2000,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_GPT</we:customFunctionIds>
@@ -1754,8 +2030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFBAD58-1D9D-47F5-97B2-84BBF49FF353}">
   <dimension ref="B3:K79"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72:H79"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1772,12 +2048,18 @@
     <col min="16" max="16" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>476</v>
+      </c>
       <c r="C3" s="5">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1797,7 +2079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
         <v>1</v>
       </c>
@@ -1817,7 +2099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>2</v>
       </c>
@@ -1837,7 +2119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <v>3</v>
       </c>
@@ -1857,12 +2139,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>476</v>
+      </c>
       <c r="C9" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>0</v>
       </c>
@@ -1882,7 +2170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
         <v>1</v>
       </c>
@@ -1903,7 +2191,7 @@
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
         <v>2</v>
       </c>
@@ -1923,7 +2211,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C13" s="2">
         <v>3</v>
       </c>
@@ -1943,12 +2231,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>476</v>
+      </c>
       <c r="C15" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
         <v>0</v>
       </c>
@@ -2041,8 +2335,14 @@
       <c r="K21" s="4"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>476</v>
+      </c>
       <c r="C23" s="5">
         <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="30" x14ac:dyDescent="0.25">
@@ -2174,8 +2474,14 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>476</v>
+      </c>
       <c r="C31" s="1">
         <v>50</v>
+      </c>
+      <c r="D31" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="32" spans="2:11" ht="30" x14ac:dyDescent="0.25">
@@ -2299,8 +2605,14 @@
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>476</v>
+      </c>
       <c r="C39" s="1">
         <v>100</v>
+      </c>
+      <c r="D39" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="30" x14ac:dyDescent="0.25">
@@ -2435,12 +2747,18 @@
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>476</v>
+      </c>
       <c r="C49" s="5">
         <v>30</v>
       </c>
-    </row>
-    <row r="50" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C50" s="3" t="s">
         <v>0</v>
       </c>
@@ -2460,7 +2778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C51" s="1">
         <v>1</v>
       </c>
@@ -2480,7 +2798,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C52" s="1">
         <v>2</v>
       </c>
@@ -2500,7 +2818,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C53" s="1">
         <v>3</v>
       </c>
@@ -2520,7 +2838,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C54" s="1">
         <v>4</v>
       </c>
@@ -2540,7 +2858,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C55" s="1">
         <v>5</v>
       </c>
@@ -2560,7 +2878,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C56" s="1">
         <v>6</v>
       </c>
@@ -2580,7 +2898,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C57" s="2">
         <v>7</v>
       </c>
@@ -2600,12 +2918,18 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>476</v>
+      </c>
       <c r="C60" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="61" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C61" s="3" t="s">
         <v>0</v>
       </c>
@@ -2625,7 +2949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C62" s="1">
         <v>1</v>
       </c>
@@ -2645,7 +2969,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C63" s="1">
         <v>2</v>
       </c>
@@ -2665,7 +2989,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C64" s="1">
         <v>3</v>
       </c>
@@ -2685,7 +3009,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C65" s="1">
         <v>4</v>
       </c>
@@ -2705,7 +3029,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C66" s="1">
         <v>5</v>
       </c>
@@ -2725,7 +3049,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C67" s="1">
         <v>6</v>
       </c>
@@ -2745,7 +3069,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C68" s="2">
         <v>7</v>
       </c>
@@ -2765,12 +3089,18 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>476</v>
+      </c>
       <c r="C71" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="72" spans="3:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C72" s="3" t="s">
         <v>0</v>
       </c>
@@ -2790,7 +3120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C73" s="1">
         <v>1</v>
       </c>
@@ -2810,7 +3140,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C74" s="1">
         <v>2</v>
       </c>
@@ -2830,7 +3160,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C75" s="1">
         <v>3</v>
       </c>
@@ -2850,7 +3180,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C76" s="1">
         <v>4</v>
       </c>
@@ -2870,7 +3200,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C77" s="1">
         <v>5</v>
       </c>
@@ -2890,7 +3220,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C78" s="1">
         <v>6</v>
       </c>
@@ -2910,7 +3240,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C79" s="2">
         <v>7</v>
       </c>
@@ -2937,10 +3267,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D19BA4-5C5F-4657-8024-88F3005F1BF2}">
-  <dimension ref="C4:R60"/>
+  <dimension ref="B4:R60"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53:Q60"/>
+    <sheetView showGridLines="0" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29:Q60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2949,15 +3279,27 @@
     <col min="13" max="13" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>476</v>
+      </c>
       <c r="C4" s="5">
         <v>30</v>
       </c>
+      <c r="D4" t="s">
+        <v>477</v>
+      </c>
+      <c r="K4" t="s">
+        <v>476</v>
+      </c>
       <c r="L4" s="5">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="3:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
@@ -2995,7 +3337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -3033,7 +3375,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -3071,7 +3413,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <v>3</v>
       </c>
@@ -3090,95 +3432,102 @@
       <c r="H8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="1">
         <v>3</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="P8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q8" s="6" t="s">
+      <c r="Q8" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="L9" s="8">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L9" s="7">
         <v>4</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="O9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="P9" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="Q9" s="8" t="s">
+      <c r="Q9" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="L10" s="9">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L10" s="8">
         <v>5</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="P10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="Q10" s="9" t="s">
+      <c r="Q10" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C12" s="17">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>476</v>
+      </c>
+      <c r="C12" s="5">
         <v>50</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="L12">
+      <c r="D12" t="s">
+        <v>477</v>
+      </c>
+      <c r="K12" t="s">
+        <v>476</v>
+      </c>
+      <c r="L12" s="16">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="3:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="C13" s="19" t="s">
+      <c r="M12" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="L13" s="3" t="s">
@@ -3200,23 +3549,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C14" s="20">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
         <v>1</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="1" t="s">
         <v>382</v>
       </c>
       <c r="L14" s="1">
@@ -3238,23 +3587,23 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C15" s="20">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
         <v>2</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="1" t="s">
         <v>386</v>
       </c>
       <c r="L15" s="1">
@@ -3276,98 +3625,105 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C16" s="21">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C16" s="2">
         <v>3</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="H16" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="1">
         <v>3</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="N16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O16" s="6" t="s">
+      <c r="O16" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="P16" s="6" t="s">
+      <c r="P16" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="Q16" s="6" t="s">
+      <c r="Q16" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="L17" s="8">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L17" s="7">
         <v>4</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="M17" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="N17" s="8" t="s">
+      <c r="N17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="O17" s="8" t="s">
+      <c r="O17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P17" s="8" t="s">
+      <c r="P17" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="Q17" s="8" t="s">
+      <c r="Q17" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="L18" s="9">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L18" s="8">
         <v>5</v>
       </c>
-      <c r="M18" s="9" t="s">
+      <c r="M18" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="N18" s="9" t="s">
+      <c r="N18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="O18" s="9" t="s">
+      <c r="O18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="P18" s="9" t="s">
+      <c r="P18" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="Q18" s="9" t="s">
+      <c r="Q18" s="8" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>476</v>
+      </c>
       <c r="C20" s="5">
         <v>100</v>
       </c>
-      <c r="L20" s="10">
+      <c r="D20" t="s">
+        <v>477</v>
+      </c>
+      <c r="K20" t="s">
+        <v>476</v>
+      </c>
+      <c r="L20" s="16">
         <v>100</v>
       </c>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-    </row>
-    <row r="21" spans="3:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="30" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
         <v>0</v>
       </c>
@@ -3386,26 +3742,26 @@
       <c r="H21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="L21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M21" s="11" t="s">
+      <c r="M21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N21" s="11" t="s">
+      <c r="N21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O21" s="11" t="s">
+      <c r="O21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P21" s="11" t="s">
+      <c r="P21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q21" s="11" t="s">
+      <c r="Q21" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C22" s="1">
         <v>1</v>
       </c>
@@ -3424,26 +3780,26 @@
       <c r="H22" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="1">
         <v>1</v>
       </c>
-      <c r="M22" s="12" t="s">
+      <c r="M22" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="N22" s="12" t="s">
+      <c r="N22" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="O22" s="12" t="s">
+      <c r="O22" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="P22" s="12" t="s">
+      <c r="P22" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="Q22" s="12" t="s">
+      <c r="Q22" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C23" s="1">
         <v>2</v>
       </c>
@@ -3462,26 +3818,26 @@
       <c r="H23" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="1">
         <v>2</v>
       </c>
-      <c r="M23" s="12" t="s">
+      <c r="M23" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="N23" s="12" t="s">
+      <c r="N23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O23" s="12" t="s">
+      <c r="O23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="P23" s="12" t="s">
+      <c r="P23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q23" s="12" t="s">
+      <c r="Q23" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C24" s="2">
         <v>3</v>
       </c>
@@ -3500,66 +3856,66 @@
       <c r="H24" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="L24" s="13">
+      <c r="L24" s="1">
         <v>3</v>
       </c>
-      <c r="M24" s="13" t="s">
+      <c r="M24" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="N24" s="13" t="s">
+      <c r="N24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="O24" s="13" t="s">
+      <c r="O24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P24" s="13" t="s">
+      <c r="P24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Q24" s="13" t="s">
+      <c r="Q24" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="L25" s="14">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L25" s="7">
         <v>4</v>
       </c>
-      <c r="M25" s="14" t="s">
+      <c r="M25" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="N25" s="14">
+      <c r="N25" s="7">
         <v>10000</v>
       </c>
-      <c r="O25" s="14">
+      <c r="O25" s="7">
         <v>10000</v>
       </c>
-      <c r="P25" s="14">
+      <c r="P25" s="7">
         <v>10000</v>
       </c>
-      <c r="Q25" s="14">
+      <c r="Q25" s="7">
         <v>10000</v>
       </c>
     </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="L26" s="15">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L26" s="8">
         <v>5</v>
       </c>
-      <c r="M26" s="15" t="s">
+      <c r="M26" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="N26" s="15">
+      <c r="N26" s="8">
         <v>10000</v>
       </c>
-      <c r="O26" s="15">
+      <c r="O26" s="8">
         <v>10000</v>
       </c>
-      <c r="P26" s="15">
+      <c r="P26" s="8">
         <v>10000</v>
       </c>
-      <c r="Q26" s="15">
+      <c r="Q26" s="8">
         <v>10000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
@@ -3570,12 +3926,18 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="K29" t="s">
+        <v>476</v>
+      </c>
       <c r="L29">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="M29" s="5" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" ht="30" x14ac:dyDescent="0.25">
       <c r="L30" s="3" t="s">
         <v>0</v>
       </c>
@@ -3595,7 +3957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="L31" s="1">
         <v>1</v>
       </c>
@@ -3615,7 +3977,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="L32" s="1">
         <v>2</v>
       </c>
@@ -3747,167 +4109,173 @@
       <c r="R40" s="4"/>
     </row>
     <row r="41" spans="10:18" x14ac:dyDescent="0.25">
+      <c r="K41" t="s">
+        <v>476</v>
+      </c>
       <c r="L41">
         <v>50</v>
       </c>
+      <c r="M41" s="5" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="42" spans="10:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="L42" s="11" t="s">
+      <c r="L42" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M42" s="11" t="s">
+      <c r="M42" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N42" s="11" t="s">
+      <c r="N42" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O42" s="11" t="s">
+      <c r="O42" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P42" s="11" t="s">
+      <c r="P42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q42" s="11" t="s">
+      <c r="Q42" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="L43" s="12">
+      <c r="L43" s="1">
         <v>1</v>
       </c>
-      <c r="M43" s="12" t="s">
+      <c r="M43" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="N43" s="12" t="s">
+      <c r="N43" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="O43" s="12" t="s">
+      <c r="O43" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="P43" s="12" t="s">
+      <c r="P43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="12" t="s">
+      <c r="Q43" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="44" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="L44" s="12">
+      <c r="L44" s="1">
         <v>2</v>
       </c>
-      <c r="M44" s="12" t="s">
+      <c r="M44" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="N44" s="12" t="s">
+      <c r="N44" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="O44" s="12" t="s">
+      <c r="O44" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="P44" s="12" t="s">
+      <c r="P44" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="Q44" s="12" t="s">
+      <c r="Q44" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="45" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="L45" s="12">
+      <c r="L45" s="1">
         <v>3</v>
       </c>
-      <c r="M45" s="12" t="s">
+      <c r="M45" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="N45" s="12" t="s">
+      <c r="N45" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O45" s="12" t="s">
+      <c r="O45" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P45" s="12" t="s">
+      <c r="P45" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="Q45" s="12" t="s">
+      <c r="Q45" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="46" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="L46" s="12">
+      <c r="L46" s="1">
         <v>4</v>
       </c>
-      <c r="M46" s="12" t="s">
+      <c r="M46" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="N46" s="12">
+      <c r="N46" s="1">
         <v>10000</v>
       </c>
-      <c r="O46" s="12">
+      <c r="O46" s="1">
         <v>10000</v>
       </c>
-      <c r="P46" s="12">
+      <c r="P46" s="1">
         <v>10000</v>
       </c>
-      <c r="Q46" s="12">
+      <c r="Q46" s="1">
         <v>10000</v>
       </c>
     </row>
     <row r="47" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="L47" s="12">
+      <c r="L47" s="1">
         <v>5</v>
       </c>
-      <c r="M47" s="12" t="s">
+      <c r="M47" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="N47" s="12" t="s">
+      <c r="N47" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O47" s="12" t="s">
+      <c r="O47" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P47" s="12" t="s">
+      <c r="P47" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="Q47" s="12" t="s">
+      <c r="Q47" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="48" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="L48" s="12">
+      <c r="L48" s="1">
         <v>6</v>
       </c>
-      <c r="M48" s="12" t="s">
+      <c r="M48" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="N48" s="12" t="s">
+      <c r="N48" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O48" s="12" t="s">
+      <c r="O48" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P48" s="12" t="s">
+      <c r="P48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q48" s="12" t="s">
+      <c r="Q48" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="49" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="L49" s="23">
+      <c r="L49" s="2">
         <v>7</v>
       </c>
-      <c r="M49" s="23" t="s">
+      <c r="M49" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="N49" s="23">
+      <c r="N49" s="2">
         <v>10000</v>
       </c>
-      <c r="O49" s="23">
+      <c r="O49" s="2">
         <v>10000</v>
       </c>
-      <c r="P49" s="23">
+      <c r="P49" s="2">
         <v>10000</v>
       </c>
-      <c r="Q49" s="23">
+      <c r="Q49" s="2">
         <v>10000</v>
       </c>
     </row>
@@ -3923,167 +4291,173 @@
       <c r="R51" s="4"/>
     </row>
     <row r="52" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="L52" s="16">
+      <c r="K52" t="s">
+        <v>476</v>
+      </c>
+      <c r="L52" s="1">
         <v>100</v>
       </c>
+      <c r="M52" s="5" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="53" spans="10:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="L53" s="11" t="s">
+      <c r="L53" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M53" s="11" t="s">
+      <c r="M53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N53" s="11" t="s">
+      <c r="N53" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O53" s="11" t="s">
+      <c r="O53" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P53" s="11" t="s">
+      <c r="P53" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q53" s="11" t="s">
+      <c r="Q53" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="L54" s="12">
+      <c r="L54" s="1">
         <v>1</v>
       </c>
-      <c r="M54" s="12" t="s">
+      <c r="M54" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="N54" s="12" t="s">
+      <c r="N54" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="O54" s="12" t="s">
+      <c r="O54" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P54" s="12" t="s">
+      <c r="P54" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="Q54" s="12" t="s">
+      <c r="Q54" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="55" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="L55" s="12">
+      <c r="L55" s="1">
         <v>2</v>
       </c>
-      <c r="M55" s="12" t="s">
+      <c r="M55" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="N55" s="12" t="s">
+      <c r="N55" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="O55" s="12" t="s">
+      <c r="O55" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="P55" s="12" t="s">
+      <c r="P55" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q55" s="12" t="s">
+      <c r="Q55" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="56" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="L56" s="12">
+      <c r="L56" s="1">
         <v>3</v>
       </c>
-      <c r="M56" s="12" t="s">
+      <c r="M56" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="N56" s="12" t="s">
+      <c r="N56" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O56" s="12" t="s">
+      <c r="O56" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P56" s="12" t="s">
+      <c r="P56" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Q56" s="12" t="s">
+      <c r="Q56" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="57" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="L57" s="12">
+      <c r="L57" s="1">
         <v>4</v>
       </c>
-      <c r="M57" s="12" t="s">
+      <c r="M57" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="N57" s="12">
+      <c r="N57" s="1">
         <v>10000</v>
       </c>
-      <c r="O57" s="12">
+      <c r="O57" s="1">
         <v>10000</v>
       </c>
-      <c r="P57" s="12">
+      <c r="P57" s="1">
         <v>10000</v>
       </c>
-      <c r="Q57" s="12">
+      <c r="Q57" s="1">
         <v>10000</v>
       </c>
     </row>
     <row r="58" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="L58" s="12">
+      <c r="L58" s="1">
         <v>5</v>
       </c>
-      <c r="M58" s="12" t="s">
+      <c r="M58" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="N58" s="12" t="s">
+      <c r="N58" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O58" s="12" t="s">
+      <c r="O58" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P58" s="12" t="s">
+      <c r="P58" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="Q58" s="12" t="s">
+      <c r="Q58" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="59" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="L59" s="12">
+      <c r="L59" s="1">
         <v>6</v>
       </c>
-      <c r="M59" s="12" t="s">
+      <c r="M59" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="N59" s="12">
+      <c r="N59" s="1">
         <v>10000</v>
       </c>
-      <c r="O59" s="12">
+      <c r="O59" s="1">
         <v>10000</v>
       </c>
-      <c r="P59" s="12">
+      <c r="P59" s="1">
         <v>10000</v>
       </c>
-      <c r="Q59" s="12">
+      <c r="Q59" s="1">
         <v>10000</v>
       </c>
     </row>
     <row r="60" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="L60" s="23">
+      <c r="L60" s="2">
         <v>7</v>
       </c>
-      <c r="M60" s="23" t="s">
+      <c r="M60" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="N60" s="23" t="s">
+      <c r="N60" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O60" s="23" t="s">
+      <c r="O60" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="P60" s="23" t="s">
+      <c r="P60" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="Q60" s="23" t="s">
+      <c r="Q60" s="2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4097,8 +4471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D263BBA0-87D3-4488-80DF-E56D75C8DC3D}">
   <dimension ref="C6:J95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="T65" sqref="T65"/>
+    <sheetView showGridLines="0" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:I95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4107,12 +4481,18 @@
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>476</v>
+      </c>
       <c r="D6" s="5">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" ht="30" x14ac:dyDescent="0.25">
       <c r="D7" s="3" t="s">
         <v>0</v>
       </c>
@@ -4132,7 +4512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D8" s="1">
         <v>1</v>
       </c>
@@ -4152,7 +4532,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D9" s="1">
         <v>2</v>
       </c>
@@ -4172,7 +4552,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D10" s="2">
         <v>3</v>
       </c>
@@ -4192,99 +4572,106 @@
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D14" s="17">
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>476</v>
+      </c>
+      <c r="D14" s="5">
         <v>50</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-    </row>
-    <row r="15" spans="4:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D15" s="19" t="s">
+      <c r="E14" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D16" s="20">
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="1" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D17" s="20">
+      <c r="D17" s="1">
         <v>2</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="1" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D18" s="21">
+      <c r="D18" s="2">
         <v>3</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I18" s="2" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>476</v>
+      </c>
       <c r="D22" s="5">
         <v>100</v>
+      </c>
+      <c r="E22" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="23" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -4368,21 +4755,27 @@
       </c>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>476</v>
+      </c>
       <c r="D32">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="E32" s="5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" ht="30" x14ac:dyDescent="0.25">
       <c r="D33" s="3" t="s">
         <v>0</v>
       </c>
@@ -4402,7 +4795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D34" s="1">
         <v>1</v>
       </c>
@@ -4422,7 +4815,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D35" s="1">
         <v>2</v>
       </c>
@@ -4442,82 +4835,78 @@
         <v>252</v>
       </c>
     </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D36" s="6">
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D36" s="1">
         <v>3</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D37" s="8">
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D37" s="7">
         <v>4</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="H37" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="I37" s="8" t="s">
+      <c r="I37" s="7" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D38" s="9">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D38" s="8">
         <v>5</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="H38" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="I38" s="9" t="s">
+      <c r="I38" s="8" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-    </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>476</v>
+      </c>
       <c r="D43">
         <v>50</v>
       </c>
-    </row>
-    <row r="44" spans="3:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="E43" s="5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" ht="30" x14ac:dyDescent="0.25">
       <c r="D44" s="3" t="s">
         <v>0</v>
       </c>
@@ -4537,7 +4926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D45" s="1">
         <v>1</v>
       </c>
@@ -4557,7 +4946,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D46" s="1">
         <v>2</v>
       </c>
@@ -4577,79 +4966,75 @@
         <v>228</v>
       </c>
     </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D47" s="6">
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D47" s="1">
         <v>3</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G47" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="H47" s="6" t="s">
+      <c r="H47" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I47" s="6" t="s">
+      <c r="I47" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D48" s="8">
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D48" s="7">
         <v>4</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="H48" s="8" t="s">
+      <c r="H48" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="I48" s="8" t="s">
+      <c r="I48" s="7" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="49" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D49" s="9">
+      <c r="D49" s="8">
         <v>5</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="G49" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="H49" s="9" t="s">
+      <c r="H49" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="I49" s="9" t="s">
+      <c r="I49" s="8" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-    </row>
     <row r="53" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>476</v>
+      </c>
       <c r="D53">
         <v>100</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="54" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -4713,81 +5098,87 @@
       </c>
     </row>
     <row r="57" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D57" s="6">
+      <c r="D57" s="1">
         <v>3</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="F57" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="G57" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="H57" s="6" t="s">
+      <c r="H57" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="I57" s="6" t="s">
+      <c r="I57" s="1" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="58" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D58" s="8">
+      <c r="D58" s="7">
         <v>4</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="G58" s="8" t="s">
+      <c r="G58" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="H58" s="8" t="s">
+      <c r="H58" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="I58" s="8" t="s">
+      <c r="I58" s="7" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="59" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D59" s="9">
+      <c r="D59" s="8">
         <v>5</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="E59" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="F59" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="G59" s="9" t="s">
+      <c r="G59" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="H59" s="9" t="s">
+      <c r="H59" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="I59" s="9" t="s">
+      <c r="I59" s="8" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="64" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-    </row>
-    <row r="65" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>476</v>
+      </c>
       <c r="D65">
         <v>30</v>
       </c>
-    </row>
-    <row r="66" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="E65" s="5" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9" ht="30" x14ac:dyDescent="0.25">
       <c r="D66" s="3" t="s">
         <v>0</v>
       </c>
@@ -4807,152 +5198,158 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D67" s="6">
+    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D67" s="1">
         <v>1</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E67" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="F67" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="G67" s="6" t="s">
+      <c r="G67" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="H67" s="6" t="s">
+      <c r="H67" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="I67" s="6" t="s">
+      <c r="I67" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="68" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D68" s="6">
+    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D68" s="1">
         <v>2</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E68" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="F68" s="6" t="s">
+      <c r="F68" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="G68" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="H68" s="6" t="s">
+      <c r="H68" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="I68" s="6" t="s">
+      <c r="I68" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="69" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D69" s="6">
+    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D69" s="1">
         <v>3</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E69" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F69" s="6" t="s">
+      <c r="F69" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="G69" s="6" t="s">
+      <c r="G69" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="H69" s="6" t="s">
+      <c r="H69" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="I69" s="6" t="s">
+      <c r="I69" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="70" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D70" s="6">
+    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D70" s="1">
         <v>4</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E70" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="F70" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="G70" s="6" t="s">
+      <c r="G70" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="H70" s="6" t="s">
+      <c r="H70" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="I70" s="6" t="s">
+      <c r="I70" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="71" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D71" s="6">
+    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D71" s="1">
         <v>5</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E71" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F71" s="6" t="s">
+      <c r="F71" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="G71" s="6" t="s">
+      <c r="G71" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="H71" s="6" t="s">
+      <c r="H71" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="I71" s="6" t="s">
+      <c r="I71" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="72" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D72" s="6">
+    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D72" s="1">
         <v>6</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E72" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="F72" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="G72" s="6" t="s">
+      <c r="G72" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="H72" s="6" t="s">
+      <c r="H72" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="I72" s="6" t="s">
+      <c r="I72" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="73" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D73" s="7">
+    <row r="73" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D73" s="6">
         <v>7</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F73" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="G73" s="7" t="s">
+      <c r="G73" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H73" s="7" t="s">
+      <c r="H73" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="I73" s="7" t="s">
+      <c r="I73" s="6" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="76" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>476</v>
+      </c>
       <c r="D76">
         <v>50</v>
       </c>
-    </row>
-    <row r="77" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="E76" s="5" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9" ht="30" x14ac:dyDescent="0.25">
       <c r="D77" s="3" t="s">
         <v>0</v>
       </c>
@@ -4972,152 +5369,158 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D78" s="6">
+    <row r="78" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D78" s="1">
         <v>1</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="E78" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="F78" s="6" t="s">
+      <c r="F78" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="G78" s="6" t="s">
+      <c r="G78" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="H78" s="6" t="s">
+      <c r="H78" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="I78" s="6" t="s">
+      <c r="I78" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="79" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D79" s="6">
+    <row r="79" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D79" s="1">
         <v>2</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="E79" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="F79" s="6" t="s">
+      <c r="F79" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="G79" s="6" t="s">
+      <c r="G79" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="H79" s="6" t="s">
+      <c r="H79" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="I79" s="6" t="s">
+      <c r="I79" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="80" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D80" s="6">
+    <row r="80" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D80" s="1">
         <v>3</v>
       </c>
-      <c r="E80" s="6" t="s">
+      <c r="E80" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="F80" s="6" t="s">
+      <c r="F80" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="G80" s="6" t="s">
+      <c r="G80" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="H80" s="6" t="s">
+      <c r="H80" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="I80" s="6" t="s">
+      <c r="I80" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="81" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D81" s="6">
+    <row r="81" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D81" s="1">
         <v>4</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="E81" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="F81" s="6" t="s">
+      <c r="F81" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="G81" s="6" t="s">
+      <c r="G81" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="H81" s="6" t="s">
+      <c r="H81" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="I81" s="6" t="s">
+      <c r="I81" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="82" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D82" s="6">
+    <row r="82" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D82" s="1">
         <v>5</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="E82" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="F82" s="6" t="s">
+      <c r="F82" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="G82" s="6" t="s">
+      <c r="G82" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="H82" s="6" t="s">
+      <c r="H82" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="I82" s="6" t="s">
+      <c r="I82" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="83" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D83" s="6">
+    <row r="83" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D83" s="1">
         <v>6</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="E83" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="F83" s="6" t="s">
+      <c r="F83" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="G83" s="6" t="s">
+      <c r="G83" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="H83" s="6" t="s">
+      <c r="H83" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="I83" s="6" t="s">
+      <c r="I83" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="84" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D84" s="7">
+    <row r="84" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D84" s="6">
         <v>7</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E84" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="F84" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="G84" s="7" t="s">
+      <c r="G84" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="H84" s="7" t="s">
+      <c r="H84" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="I84" s="7" t="s">
+      <c r="I84" s="6" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="87" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>476</v>
+      </c>
       <c r="D87">
         <v>100</v>
       </c>
-    </row>
-    <row r="88" spans="4:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="E87" s="5" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="88" spans="3:9" ht="30" x14ac:dyDescent="0.25">
       <c r="D88" s="3" t="s">
         <v>0</v>
       </c>
@@ -5137,144 +5540,933 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D89" s="6">
+    <row r="89" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D89" s="1">
         <v>1</v>
       </c>
-      <c r="E89" s="6" t="s">
+      <c r="E89" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="F89" s="6" t="s">
+      <c r="F89" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="G89" s="6" t="s">
+      <c r="G89" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="H89" s="6" t="s">
+      <c r="H89" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="I89" s="6" t="s">
+      <c r="I89" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="90" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D90" s="6">
+    <row r="90" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D90" s="1">
         <v>2</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="E90" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="F90" s="6" t="s">
+      <c r="F90" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="G90" s="6" t="s">
+      <c r="G90" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="H90" s="6" t="s">
+      <c r="H90" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="I90" s="6" t="s">
+      <c r="I90" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="91" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D91" s="6">
+    <row r="91" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D91" s="1">
         <v>3</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="E91" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="F91" s="6" t="s">
+      <c r="F91" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="G91" s="6" t="s">
+      <c r="G91" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="H91" s="6" t="s">
+      <c r="H91" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="I91" s="6" t="s">
+      <c r="I91" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="92" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D92" s="6">
+    <row r="92" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D92" s="1">
         <v>4</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E92" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="F92" s="6" t="s">
+      <c r="F92" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="G92" s="6" t="s">
+      <c r="G92" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="H92" s="6" t="s">
+      <c r="H92" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="I92" s="6" t="s">
+      <c r="I92" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="93" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D93" s="6">
+    <row r="93" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D93" s="1">
         <v>5</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="E93" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="F93" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G93" s="6" t="s">
+      <c r="G93" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H93" s="6" t="s">
+      <c r="H93" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="I93" s="6" t="s">
+      <c r="I93" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="94" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D94" s="6">
+    <row r="94" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D94" s="1">
         <v>6</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="E94" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="F94" s="6" t="s">
+      <c r="F94" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G94" s="6" t="s">
+      <c r="G94" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="H94" s="6" t="s">
+      <c r="H94" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="I94" s="6" t="s">
+      <c r="I94" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="95" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D95" s="7">
+    <row r="95" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D95" s="6">
         <v>7</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E95" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="F95" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="G95" s="7" t="s">
+      <c r="G95" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="H95" s="7" t="s">
+      <c r="H95" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="I95" s="7" t="s">
+      <c r="I95" s="6" t="s">
         <v>378</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EB6818-E8A3-4566-A4B3-0D775A06DC11}">
+  <dimension ref="E6:K43"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="5:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E6" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="5:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="11">
+        <v>30</v>
+      </c>
+      <c r="F9" s="11">
+        <v>3</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="11">
+        <v>30</v>
+      </c>
+      <c r="F10" s="11">
+        <v>3</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="11">
+        <v>30</v>
+      </c>
+      <c r="F11" s="11">
+        <v>3</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="11">
+        <v>50</v>
+      </c>
+      <c r="F12" s="11">
+        <v>5</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="11">
+        <v>50</v>
+      </c>
+      <c r="F13" s="11">
+        <v>5</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="11">
+        <v>50</v>
+      </c>
+      <c r="F14" s="11">
+        <v>5</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="11">
+        <v>100</v>
+      </c>
+      <c r="F15" s="11">
+        <v>7</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="11">
+        <v>100</v>
+      </c>
+      <c r="F16" s="11">
+        <v>7</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="11">
+        <v>100</v>
+      </c>
+      <c r="F17" s="11">
+        <v>7</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="5:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E19" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+    </row>
+    <row r="20" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+    </row>
+    <row r="21" spans="5:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="11">
+        <v>30</v>
+      </c>
+      <c r="F22" s="11">
+        <v>3</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="23" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="11">
+        <v>30</v>
+      </c>
+      <c r="F23" s="11">
+        <v>3</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="11">
+        <v>30</v>
+      </c>
+      <c r="F24" s="11">
+        <v>3</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="11">
+        <v>50</v>
+      </c>
+      <c r="F25" s="11">
+        <v>5</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="11">
+        <v>50</v>
+      </c>
+      <c r="F26" s="11">
+        <v>5</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="27" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="11">
+        <v>50</v>
+      </c>
+      <c r="F27" s="11">
+        <v>5</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="28" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="11">
+        <v>100</v>
+      </c>
+      <c r="F28" s="11">
+        <v>7</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="11">
+        <v>100</v>
+      </c>
+      <c r="F29" s="11">
+        <v>7</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="30" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="11">
+        <v>100</v>
+      </c>
+      <c r="F30" s="11">
+        <v>7</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="5:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+    </row>
+    <row r="32" spans="5:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E32" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+    </row>
+    <row r="33" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+    </row>
+    <row r="34" spans="5:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="11">
+        <v>30</v>
+      </c>
+      <c r="F35" s="11">
+        <v>3</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="36" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="11">
+        <v>30</v>
+      </c>
+      <c r="F36" s="11">
+        <v>3</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="37" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="11">
+        <v>30</v>
+      </c>
+      <c r="F37" s="11">
+        <v>3</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="38" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="11">
+        <v>50</v>
+      </c>
+      <c r="F38" s="11">
+        <v>5</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="39" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="11">
+        <v>50</v>
+      </c>
+      <c r="F39" s="11">
+        <v>5</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="40" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E40" s="11">
+        <v>50</v>
+      </c>
+      <c r="F40" s="11">
+        <v>5</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="41" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E41" s="11">
+        <v>100</v>
+      </c>
+      <c r="F41" s="11">
+        <v>7</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="42" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E42" s="11">
+        <v>100</v>
+      </c>
+      <c r="F42" s="11">
+        <v>7</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="43" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E43" s="11">
+        <v>100</v>
+      </c>
+      <c r="F43" s="11">
+        <v>7</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>

--- a/File Naskah/File Skripsi/hasil pengujian training.xlsx
+++ b/File Naskah/File Skripsi/hasil pengujian training.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SKRIPSI\Skripsi\File Naskah\File Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2952AA3-F126-4C94-8CB7-EB035B0FC787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D52001-5FD5-42CC-BEA7-6F694C6026A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{6E07EE4A-E083-4B73-A265-D447A504391A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{6E07EE4A-E083-4B73-A265-D447A504391A}"/>
   </bookViews>
   <sheets>
     <sheet name="ADAM" sheetId="1" r:id="rId1"/>
     <sheet name="RMSprop" sheetId="2" r:id="rId2"/>
     <sheet name="SGD" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="579">
   <si>
     <t>Fold</t>
   </si>
@@ -1479,13 +1481,310 @@
   </si>
   <si>
     <t>7 fold</t>
+  </si>
+  <si>
+    <t>Optimizer</t>
+  </si>
+  <si>
+    <t>Epochs</t>
+  </si>
+  <si>
+    <t>Avg Training Time (s)</t>
+  </si>
+  <si>
+    <t>Avg Accuracy (%)</t>
+  </si>
+  <si>
+    <t>Avg F1 Score</t>
+  </si>
+  <si>
+    <t>Avg Precision</t>
+  </si>
+  <si>
+    <t>Avg Recall</t>
+  </si>
+  <si>
+    <t>591.47</t>
+  </si>
+  <si>
+    <t>98.95</t>
+  </si>
+  <si>
+    <t>98.93</t>
+  </si>
+  <si>
+    <t>578.45</t>
+  </si>
+  <si>
+    <t>99.74</t>
+  </si>
+  <si>
+    <t>644.26</t>
+  </si>
+  <si>
+    <t>99.44</t>
+  </si>
+  <si>
+    <t>99.43</t>
+  </si>
+  <si>
+    <t>963.15</t>
+  </si>
+  <si>
+    <t>99.04</t>
+  </si>
+  <si>
+    <t>991.91</t>
+  </si>
+  <si>
+    <t>99.34</t>
+  </si>
+  <si>
+    <t>996.71</t>
+  </si>
+  <si>
+    <t>99.24</t>
+  </si>
+  <si>
+    <t>410.17</t>
+  </si>
+  <si>
+    <t>99.17</t>
+  </si>
+  <si>
+    <t>99.13</t>
+  </si>
+  <si>
+    <t>99.23</t>
+  </si>
+  <si>
+    <t>1962.92</t>
+  </si>
+  <si>
+    <t>99.16</t>
+  </si>
+  <si>
+    <t>1932.10</t>
+  </si>
+  <si>
+    <t>99.19</t>
+  </si>
+  <si>
+    <t>99.18</t>
+  </si>
+  <si>
+    <t>98.97</t>
+  </si>
+  <si>
+    <t>98.98</t>
+  </si>
+  <si>
+    <t>582.27</t>
+  </si>
+  <si>
+    <t>98.02</t>
+  </si>
+  <si>
+    <t>98.03</t>
+  </si>
+  <si>
+    <t>634.94</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>98.99</t>
+  </si>
+  <si>
+    <t>958.83</t>
+  </si>
+  <si>
+    <t>98.88</t>
+  </si>
+  <si>
+    <t>98.87</t>
+  </si>
+  <si>
+    <t>981.38</t>
+  </si>
+  <si>
+    <t>98.60</t>
+  </si>
+  <si>
+    <t>98.64</t>
+  </si>
+  <si>
+    <t>98.59</t>
+  </si>
+  <si>
+    <t>991.01</t>
+  </si>
+  <si>
+    <t>98.90</t>
+  </si>
+  <si>
+    <t>98.89</t>
+  </si>
+  <si>
+    <t>1846.94</t>
+  </si>
+  <si>
+    <t>1892.57</t>
+  </si>
+  <si>
+    <t>99.06</t>
+  </si>
+  <si>
+    <t>99.05</t>
+  </si>
+  <si>
+    <t>99.07</t>
+  </si>
+  <si>
+    <t>1917.11</t>
+  </si>
+  <si>
+    <t>593.97</t>
+  </si>
+  <si>
+    <t>69.83</t>
+  </si>
+  <si>
+    <t>69.62</t>
+  </si>
+  <si>
+    <t>70.60</t>
+  </si>
+  <si>
+    <t>69.57</t>
+  </si>
+  <si>
+    <t>583.70</t>
+  </si>
+  <si>
+    <t>61.63</t>
+  </si>
+  <si>
+    <t>60.85</t>
+  </si>
+  <si>
+    <t>68.64</t>
+  </si>
+  <si>
+    <t>65.63</t>
+  </si>
+  <si>
+    <t>627.56</t>
+  </si>
+  <si>
+    <t>91.68</t>
+  </si>
+  <si>
+    <t>91.37</t>
+  </si>
+  <si>
+    <t>91.84</t>
+  </si>
+  <si>
+    <t>91.25</t>
+  </si>
+  <si>
+    <t>892.41</t>
+  </si>
+  <si>
+    <t>65.27</t>
+  </si>
+  <si>
+    <t>64.80</t>
+  </si>
+  <si>
+    <t>70.77</t>
+  </si>
+  <si>
+    <t>67.94</t>
+  </si>
+  <si>
+    <t>976.98</t>
+  </si>
+  <si>
+    <t>87.43</t>
+  </si>
+  <si>
+    <t>87.20</t>
+  </si>
+  <si>
+    <t>89.03</t>
+  </si>
+  <si>
+    <t>87.76</t>
+  </si>
+  <si>
+    <t>992.38</t>
+  </si>
+  <si>
+    <t>94.57</t>
+  </si>
+  <si>
+    <t>94.38</t>
+  </si>
+  <si>
+    <t>94.45</t>
+  </si>
+  <si>
+    <t>94.61</t>
+  </si>
+  <si>
+    <t>1918.13</t>
+  </si>
+  <si>
+    <t>83.88</t>
+  </si>
+  <si>
+    <t>82.49</t>
+  </si>
+  <si>
+    <t>85.57</t>
+  </si>
+  <si>
+    <t>83.57</t>
+  </si>
+  <si>
+    <t>1919.57</t>
+  </si>
+  <si>
+    <t>92.08</t>
+  </si>
+  <si>
+    <t>91.63</t>
+  </si>
+  <si>
+    <t>92.18</t>
+  </si>
+  <si>
+    <t>91.42</t>
+  </si>
+  <si>
+    <t>1936.38</t>
+  </si>
+  <si>
+    <t>95.68</t>
+  </si>
+  <si>
+    <t>95.51</t>
+  </si>
+  <si>
+    <t>95.66</t>
+  </si>
+  <si>
+    <t>95.72</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1500,12 +1799,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -1513,6 +1806,24 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF374151"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF111111"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF374151"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF374151"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -1622,7 +1933,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1637,36 +1948,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2030,8 +2358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFBAD58-1D9D-47F5-97B2-84BBF49FF353}">
   <dimension ref="B3:K79"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView showGridLines="0" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3267,1197 +3595,1230 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D19BA4-5C5F-4657-8024-88F3005F1BF2}">
-  <dimension ref="B4:R60"/>
+  <dimension ref="B1:J81"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29:Q60"/>
+    <sheetView showGridLines="0" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:I81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="18"/>
+    <col min="5" max="5" width="14.140625" style="18" customWidth="1"/>
+    <col min="6" max="9" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="1" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C1" s="18" t="s">
         <v>476</v>
       </c>
-      <c r="C4" s="5">
+      <c r="D1" s="7">
         <v>30</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E1" s="18" t="s">
         <v>477</v>
       </c>
-      <c r="K4" t="s">
+    </row>
+    <row r="2" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D3" s="14">
+        <v>1</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="14">
+        <v>2</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="15">
+        <v>3</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="18" t="s">
         <v>476</v>
       </c>
-      <c r="L4" s="5">
+      <c r="D9" s="7">
+        <v>50</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="14">
+        <v>1</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="14">
+        <v>2</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="15">
+        <v>3</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="D17" s="7">
+        <v>100</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D18" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D19" s="14">
+        <v>1</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D20" s="14">
+        <v>2</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D21" s="15">
+        <v>3</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="D25" s="7">
         <v>30</v>
       </c>
-      <c r="M4" t="s">
+      <c r="E25" s="18" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="3" t="s">
+    <row r="26" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D26" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E26" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F26" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G26" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H26" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I26" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="3" t="s">
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D27" s="14">
+        <v>1</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="D28" s="14">
+        <v>2</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D29" s="14">
+        <v>3</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D30" s="7">
+        <v>4</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D31" s="17">
+        <v>5</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C33" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="D33" s="19">
+        <v>50</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D34" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="E34" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="F34" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="G34" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="H34" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="I34" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C6" s="1">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D35" s="14">
         <v>1</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L6" s="1">
+      <c r="E35" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D36" s="14">
+        <v>2</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D37" s="14">
+        <v>3</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D38" s="7">
+        <v>4</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D39" s="17">
+        <v>5</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C41" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="D41" s="19">
+        <v>100</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D42" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C7" s="1">
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D43" s="14">
+        <v>1</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D44" s="14">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="E44" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D45" s="14">
         <v>3</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="E45" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D46" s="7">
+        <v>4</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F46" s="7">
+        <v>10000</v>
+      </c>
+      <c r="G46" s="7">
+        <v>10000</v>
+      </c>
+      <c r="H46" s="7">
+        <v>10000</v>
+      </c>
+      <c r="I46" s="7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D47" s="17">
+        <v>5</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="F47" s="17">
+        <v>10000</v>
+      </c>
+      <c r="G47" s="17">
+        <v>10000</v>
+      </c>
+      <c r="H47" s="17">
+        <v>10000</v>
+      </c>
+      <c r="I47" s="17">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C50" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="D50" s="18">
+        <v>30</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+      <c r="D51" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D52" s="14">
+        <v>1</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D53" s="14">
+        <v>2</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D54" s="14">
         <v>3</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="1">
+      <c r="E54" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D55" s="14">
+        <v>4</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D56" s="14">
+        <v>5</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D57" s="14">
+        <v>6</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H57" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D58" s="15">
+        <v>7</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I58" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C62" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="D62" s="18">
+        <v>50</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D63" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D64" s="14">
+        <v>1</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I64" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D65" s="14">
         <v>2</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C8" s="2">
+      <c r="E65" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G65" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H65" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="I65" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D66" s="14">
         <v>3</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="1">
+      <c r="E66" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H66" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="I66" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D67" s="14">
+        <v>4</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="F67" s="14">
+        <v>10000</v>
+      </c>
+      <c r="G67" s="14">
+        <v>10000</v>
+      </c>
+      <c r="H67" s="14">
+        <v>10000</v>
+      </c>
+      <c r="I67" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D68" s="14">
+        <v>5</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H68" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I68" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D69" s="14">
+        <v>6</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D70" s="15">
+        <v>7</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="F70" s="15">
+        <v>10000</v>
+      </c>
+      <c r="G70" s="15">
+        <v>10000</v>
+      </c>
+      <c r="H70" s="15">
+        <v>10000</v>
+      </c>
+      <c r="I70" s="15">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+    </row>
+    <row r="73" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C73" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="D73" s="14">
+        <v>100</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="74" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D74" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I74" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D75" s="14">
+        <v>1</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G75" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H75" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="I75" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D76" s="14">
+        <v>2</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G76" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H76" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I76" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D77" s="14">
         <v>3</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L9" s="7">
+      <c r="E77" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G77" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H77" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I77" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D78" s="14">
         <v>4</v>
       </c>
-      <c r="M9" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L10" s="8">
+      <c r="E78" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="F78" s="14">
+        <v>10000</v>
+      </c>
+      <c r="G78" s="14">
+        <v>10000</v>
+      </c>
+      <c r="H78" s="14">
+        <v>10000</v>
+      </c>
+      <c r="I78" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="79" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D79" s="14">
         <v>5</v>
       </c>
-      <c r="M10" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>476</v>
-      </c>
-      <c r="C12" s="5">
-        <v>50</v>
-      </c>
-      <c r="D12" t="s">
-        <v>477</v>
-      </c>
-      <c r="K12" t="s">
-        <v>476</v>
-      </c>
-      <c r="L12" s="16">
-        <v>50</v>
-      </c>
-      <c r="M12" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="C13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="L14" s="1">
-        <v>1</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C15" s="1">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="L15" s="1">
-        <v>2</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C16" s="2">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="L16" s="1">
-        <v>3</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L17" s="7">
-        <v>4</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L18" s="8">
-        <v>5</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q18" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>476</v>
-      </c>
-      <c r="C20" s="5">
-        <v>100</v>
-      </c>
-      <c r="D20" t="s">
-        <v>477</v>
-      </c>
-      <c r="K20" t="s">
-        <v>476</v>
-      </c>
-      <c r="L20" s="16">
-        <v>100</v>
-      </c>
-      <c r="M20" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="C21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L22" s="1">
-        <v>1</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C23" s="1">
-        <v>2</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L23" s="1">
-        <v>2</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C24" s="2">
-        <v>3</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" s="2" t="s">
+      <c r="E79" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G79" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H79" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="I79" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="L24" s="1">
-        <v>3</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L25" s="7">
-        <v>4</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="N25" s="7">
+    </row>
+    <row r="80" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D80" s="14">
+        <v>6</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="F80" s="14">
         <v>10000</v>
       </c>
-      <c r="O25" s="7">
+      <c r="G80" s="14">
         <v>10000</v>
       </c>
-      <c r="P25" s="7">
+      <c r="H80" s="14">
         <v>10000</v>
       </c>
-      <c r="Q25" s="7">
+      <c r="I80" s="14">
         <v>10000</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L26" s="8">
-        <v>5</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="N26" s="8">
-        <v>10000</v>
-      </c>
-      <c r="O26" s="8">
-        <v>10000</v>
-      </c>
-      <c r="P26" s="8">
-        <v>10000</v>
-      </c>
-      <c r="Q26" s="8">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="K29" t="s">
-        <v>476</v>
-      </c>
-      <c r="L29">
-        <v>30</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="30" spans="2:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="L30" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L31" s="1">
-        <v>1</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="L32" s="1">
-        <v>2</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="L33" s="1">
-        <v>3</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="34" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="L34" s="1">
-        <v>4</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="35" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="L35" s="1">
-        <v>5</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="L36" s="1">
-        <v>6</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="L37" s="2">
+    <row r="81" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D81" s="15">
         <v>7</v>
       </c>
-      <c r="M37" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="N37" s="2" t="s">
+      <c r="E81" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="F81" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="O37" s="2" t="s">
+      <c r="G81" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="P37" s="2" t="s">
+      <c r="H81" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-    </row>
-    <row r="41" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="K41" t="s">
-        <v>476</v>
-      </c>
-      <c r="L41">
-        <v>50</v>
-      </c>
-      <c r="M41" s="5" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="42" spans="10:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="L42" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="L43" s="1">
-        <v>1</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q43" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="44" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="L44" s="1">
-        <v>2</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q44" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="L45" s="1">
-        <v>3</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q45" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="46" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="L46" s="1">
-        <v>4</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="N46" s="1">
-        <v>10000</v>
-      </c>
-      <c r="O46" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P46" s="1">
-        <v>10000</v>
-      </c>
-      <c r="Q46" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="47" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="L47" s="1">
-        <v>5</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="N47" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q47" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="L48" s="1">
-        <v>6</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q48" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="L49" s="2">
-        <v>7</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="N49" s="2">
-        <v>10000</v>
-      </c>
-      <c r="O49" s="2">
-        <v>10000</v>
-      </c>
-      <c r="P49" s="2">
-        <v>10000</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="51" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-    </row>
-    <row r="52" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="K52" t="s">
-        <v>476</v>
-      </c>
-      <c r="L52" s="1">
-        <v>100</v>
-      </c>
-      <c r="M52" s="5" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="53" spans="10:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="L53" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N53" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O53" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P53" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q53" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="L54" s="1">
-        <v>1</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q54" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="55" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="L55" s="1">
-        <v>2</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q55" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="56" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="L56" s="1">
-        <v>3</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q56" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="L57" s="1">
-        <v>4</v>
-      </c>
-      <c r="M57" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="N57" s="1">
-        <v>10000</v>
-      </c>
-      <c r="O57" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P57" s="1">
-        <v>10000</v>
-      </c>
-      <c r="Q57" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="58" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="L58" s="1">
-        <v>5</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q58" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="L59" s="1">
-        <v>6</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="N59" s="1">
-        <v>10000</v>
-      </c>
-      <c r="O59" s="1">
-        <v>10000</v>
-      </c>
-      <c r="P59" s="1">
-        <v>10000</v>
-      </c>
-      <c r="Q59" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="60" spans="10:18" x14ac:dyDescent="0.25">
-      <c r="L60" s="2">
-        <v>7</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O60" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P60" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q60" s="2" t="s">
+      <c r="I81" s="15" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4471,391 +4832,514 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D263BBA0-87D3-4488-80DF-E56D75C8DC3D}">
   <dimension ref="C6:J95"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:I95"/>
+    <sheetView showGridLines="0" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="M95" sqref="M95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="6" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="7">
         <v>30</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="7" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="7" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D7" s="3" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C7" s="7"/>
+      <c r="D7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D8" s="1">
+    <row r="8" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="7"/>
+      <c r="D8" s="14">
         <v>1</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="14" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D9" s="1">
+    <row r="9" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="7"/>
+      <c r="D9" s="14">
         <v>2</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="14" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="2">
+    <row r="10" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="7"/>
+      <c r="D10" s="15">
         <v>3</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="15" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+    <row r="11" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="7">
         <v>50</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="7" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="15" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D15" s="3" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C15" s="7"/>
+      <c r="D15" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D16" s="1">
+    <row r="16" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="7"/>
+      <c r="D16" s="14">
         <v>1</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="14" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D17" s="1">
+    <row r="17" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="7"/>
+      <c r="D17" s="14">
         <v>2</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="14" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D18" s="2">
+    <row r="18" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="7"/>
+      <c r="D18" s="15">
         <v>3</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="15" t="s">
         <v>400</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="15" t="s">
         <v>401</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="15" t="s">
         <v>403</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="15" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+    <row r="19" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="7">
         <v>100</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="7" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="23" spans="3:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="D23" s="3" t="s">
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C23" s="7"/>
+      <c r="D23" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D24" s="1">
+    <row r="24" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="7"/>
+      <c r="D24" s="14">
         <v>1</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="14" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D25" s="1">
+    <row r="25" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C25" s="7"/>
+      <c r="D25" s="14">
         <v>2</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="14" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D26" s="2">
+    <row r="26" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="7"/>
+      <c r="D26" s="15">
         <v>3</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="15" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-    </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
+    <row r="27" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C32" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="7">
         <v>30</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="7" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="33" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D33" s="3" t="s">
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C33" s="7"/>
+      <c r="D33" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I33" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D34" s="1">
+    <row r="34" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C34" s="7"/>
+      <c r="D34" s="14">
         <v>1</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" s="14" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D35" s="1">
+    <row r="35" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C35" s="7"/>
+      <c r="D35" s="14">
         <v>2</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" s="14" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D36" s="1">
+    <row r="36" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C36" s="7"/>
+      <c r="D36" s="14">
         <v>3</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="14" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C37" s="7"/>
       <c r="D37" s="7">
         <v>4</v>
       </c>
@@ -4875,118 +5359,164 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D38" s="8">
+    <row r="38" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C38" s="7"/>
+      <c r="D38" s="17">
         <v>5</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="I38" s="8" t="s">
+      <c r="I38" s="17" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
+    <row r="39" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C43" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="7">
         <v>50</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="7" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="44" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D44" s="3" t="s">
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C44" s="7"/>
+      <c r="D44" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G44" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="I44" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D45" s="1">
+    <row r="45" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C45" s="7"/>
+      <c r="D45" s="14">
         <v>1</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H45" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I45" s="14" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D46" s="1">
+    <row r="46" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C46" s="7"/>
+      <c r="D46" s="14">
         <v>2</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H46" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I46" s="14" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D47" s="1">
+    <row r="47" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C47" s="7"/>
+      <c r="D47" s="14">
         <v>3</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H47" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I47" s="14" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C48" s="7"/>
       <c r="D48" s="7">
         <v>4</v>
       </c>
@@ -5006,118 +5536,155 @@
         <v>238</v>
       </c>
     </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D49" s="8">
+    <row r="49" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C49" s="7"/>
+      <c r="D49" s="17">
         <v>5</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="G49" s="8" t="s">
+      <c r="G49" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="H49" s="8" t="s">
+      <c r="H49" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="I49" s="8" t="s">
+      <c r="I49" s="17" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
+    <row r="50" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+    </row>
+    <row r="51" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+    </row>
+    <row r="52" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+    </row>
+    <row r="53" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C53" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="7">
         <v>100</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="7" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="54" spans="3:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="D54" s="3" t="s">
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+    </row>
+    <row r="54" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C54" s="7"/>
+      <c r="D54" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="G54" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="H54" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="I54" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D55" s="1">
+    <row r="55" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C55" s="7"/>
+      <c r="D55" s="14">
         <v>1</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H55" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="I55" s="14" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D56" s="1">
+    <row r="56" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C56" s="7"/>
+      <c r="D56" s="14">
         <v>2</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G56" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H56" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I56" s="14" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D57" s="1">
+    <row r="57" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C57" s="7"/>
+      <c r="D57" s="14">
         <v>3</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H57" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="I57" s="14" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C58" s="7"/>
       <c r="D58" s="7">
         <v>4</v>
       </c>
@@ -5137,546 +5704,655 @@
         <v>286</v>
       </c>
     </row>
-    <row r="59" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D59" s="8">
+    <row r="59" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C59" s="7"/>
+      <c r="D59" s="17">
         <v>5</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="G59" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="H59" s="8" t="s">
+      <c r="H59" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="I59" s="8" t="s">
+      <c r="I59" s="17" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="64" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-    </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
+    <row r="60" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+    </row>
+    <row r="61" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+    </row>
+    <row r="62" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+    </row>
+    <row r="63" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+    </row>
+    <row r="64" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="6"/>
+    </row>
+    <row r="65" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C65" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="7">
         <v>30</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="7" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="66" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D66" s="3" t="s">
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+    </row>
+    <row r="66" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C66" s="7"/>
+      <c r="D66" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F66" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="G66" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="H66" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I66" s="3" t="s">
+      <c r="I66" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D67" s="1">
+    <row r="67" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C67" s="7"/>
+      <c r="D67" s="14">
         <v>1</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G67" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="H67" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="I67" s="14" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D68" s="1">
+    <row r="68" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C68" s="7"/>
+      <c r="D68" s="14">
         <v>2</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G68" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="H68" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="I68" s="14" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D69" s="1">
+    <row r="69" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C69" s="7"/>
+      <c r="D69" s="14">
         <v>3</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F69" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G69" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="H69" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="I69" s="1" t="s">
+      <c r="I69" s="14" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D70" s="1">
+    <row r="70" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C70" s="7"/>
+      <c r="D70" s="14">
         <v>4</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G70" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="H70" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="I70" s="14" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D71" s="1">
+    <row r="71" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C71" s="7"/>
+      <c r="D71" s="14">
         <v>5</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F71" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G71" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="H71" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="I71" s="14" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D72" s="1">
+    <row r="72" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C72" s="7"/>
+      <c r="D72" s="14">
         <v>6</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F72" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G72" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="H72" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="I72" s="14" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="73" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D73" s="6">
+    <row r="73" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C73" s="7"/>
+      <c r="D73" s="17">
         <v>7</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E73" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="F73" s="6" t="s">
+      <c r="F73" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="G73" s="6" t="s">
+      <c r="G73" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="H73" s="6" t="s">
+      <c r="H73" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="I73" s="6" t="s">
+      <c r="I73" s="17" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="76" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
+    <row r="74" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+    </row>
+    <row r="75" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+    </row>
+    <row r="76" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C76" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="7">
         <v>50</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="E76" s="7" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="77" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D77" s="3" t="s">
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+    </row>
+    <row r="77" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C77" s="7"/>
+      <c r="D77" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="F77" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="G77" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H77" s="3" t="s">
+      <c r="H77" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I77" s="3" t="s">
+      <c r="I77" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D78" s="1">
+    <row r="78" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C78" s="7"/>
+      <c r="D78" s="14">
         <v>1</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F78" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="G78" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="H78" s="1" t="s">
+      <c r="H78" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="I78" s="14" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="79" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D79" s="1">
+    <row r="79" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C79" s="7"/>
+      <c r="D79" s="14">
         <v>2</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F79" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G79" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="H79" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="I79" s="1" t="s">
+      <c r="I79" s="14" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="80" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D80" s="1">
+    <row r="80" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C80" s="7"/>
+      <c r="D80" s="14">
         <v>3</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F80" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G80" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="H80" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="I80" s="14" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="81" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D81" s="1">
+    <row r="81" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C81" s="7"/>
+      <c r="D81" s="14">
         <v>4</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F81" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G81" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="H81" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="I81" s="14" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="82" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D82" s="1">
+    <row r="82" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C82" s="7"/>
+      <c r="D82" s="14">
         <v>5</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F82" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="G82" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="H82" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="I82" s="1" t="s">
+      <c r="I82" s="14" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="83" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D83" s="1">
+    <row r="83" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C83" s="7"/>
+      <c r="D83" s="14">
         <v>6</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F83" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G83" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="H83" s="1" t="s">
+      <c r="H83" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="I83" s="1" t="s">
+      <c r="I83" s="14" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="84" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D84" s="6">
+    <row r="84" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C84" s="7"/>
+      <c r="D84" s="17">
         <v>7</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E84" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="F84" s="6" t="s">
+      <c r="F84" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="G84" s="6" t="s">
+      <c r="G84" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="H84" s="6" t="s">
+      <c r="H84" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="I84" s="6" t="s">
+      <c r="I84" s="17" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="87" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C87" t="s">
+    <row r="85" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+    </row>
+    <row r="86" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+    </row>
+    <row r="87" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C87" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="7">
         <v>100</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="E87" s="7" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="88" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="D88" s="3" t="s">
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+    </row>
+    <row r="88" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C88" s="7"/>
+      <c r="D88" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="F88" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G88" s="3" t="s">
+      <c r="G88" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H88" s="3" t="s">
+      <c r="H88" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I88" s="3" t="s">
+      <c r="I88" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D89" s="1">
+    <row r="89" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C89" s="7"/>
+      <c r="D89" s="14">
         <v>1</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F89" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="G89" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="H89" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="I89" s="1" t="s">
+      <c r="I89" s="14" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="90" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D90" s="1">
+    <row r="90" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C90" s="7"/>
+      <c r="D90" s="14">
         <v>2</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F90" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="G90" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="H90" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="I90" s="1" t="s">
+      <c r="I90" s="14" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="91" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D91" s="1">
+    <row r="91" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C91" s="7"/>
+      <c r="D91" s="14">
         <v>3</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F91" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="G91" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="H91" s="1" t="s">
+      <c r="H91" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="I91" s="1" t="s">
+      <c r="I91" s="14" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="92" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D92" s="1">
+    <row r="92" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C92" s="7"/>
+      <c r="D92" s="14">
         <v>4</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E92" s="14" t="s">
         <v>363</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F92" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G92" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="H92" s="1" t="s">
+      <c r="H92" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="I92" s="1" t="s">
+      <c r="I92" s="14" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="93" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D93" s="1">
+    <row r="93" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C93" s="7"/>
+      <c r="D93" s="14">
         <v>5</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="F93" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="G93" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="H93" s="1" t="s">
+      <c r="H93" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="I93" s="1" t="s">
+      <c r="I93" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="94" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D94" s="1">
+    <row r="94" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C94" s="7"/>
+      <c r="D94" s="14">
         <v>6</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E94" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="F94" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="G94" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="H94" s="1" t="s">
+      <c r="H94" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="I94" s="1" t="s">
+      <c r="I94" s="14" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="95" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D95" s="6">
+    <row r="95" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C95" s="7"/>
+      <c r="D95" s="17">
         <v>7</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="E95" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="F95" s="6" t="s">
+      <c r="F95" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="G95" s="6" t="s">
+      <c r="G95" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="H95" s="6" t="s">
+      <c r="H95" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="I95" s="6" t="s">
+      <c r="I95" s="17" t="s">
         <v>378</v>
       </c>
     </row>
@@ -5689,8 +6365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EB6818-E8A3-4566-A4B3-0D775A06DC11}">
   <dimension ref="E6:K43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8:U35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5699,777 +6375,1548 @@
     <col min="8" max="8" width="13.140625" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" customWidth="1"/>
+    <col min="17" max="17" width="17" customWidth="1"/>
+    <col min="18" max="18" width="17.42578125" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" customWidth="1"/>
+    <col min="20" max="20" width="16.85546875" customWidth="1"/>
+    <col min="21" max="21" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="5:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="5:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="11">
+      <c r="E9" s="8">
         <v>30</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="8">
         <v>3</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K9" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="10" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="11">
+      <c r="E10" s="8">
         <v>30</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="8">
         <v>3</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="11">
+      <c r="E11" s="8">
         <v>30</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="8">
         <v>3</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="12" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="11">
+      <c r="E12" s="8">
         <v>50</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="8">
         <v>5</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="9" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="13" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="11">
+      <c r="E13" s="8">
         <v>50</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="8">
         <v>5</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="K13" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="11">
+      <c r="E14" s="8">
         <v>50</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="8">
         <v>5</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="K14" s="9" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="15" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="11">
+      <c r="E15" s="8">
         <v>100</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="8">
         <v>7</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="11">
+      <c r="E16" s="8">
         <v>100</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="8">
         <v>7</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="11">
+      <c r="E17" s="8">
         <v>100</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="8">
         <v>7</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="5:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" spans="5:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
     </row>
     <row r="21" spans="5:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="14" t="s">
+      <c r="J21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="15" t="s">
+      <c r="K21" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="11">
+      <c r="E22" s="8">
         <v>30</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="8">
         <v>3</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="K22" s="12" t="s">
+      <c r="K22" s="9" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="23" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="11">
+      <c r="E23" s="8">
         <v>30</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="8">
         <v>3</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="9" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="24" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="11">
+      <c r="E24" s="8">
         <v>30</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="8">
         <v>3</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="K24" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="25" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="11">
+      <c r="E25" s="8">
         <v>50</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="8">
         <v>5</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="I25" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="8" t="s">
         <v>424</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="K25" s="9" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="26" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="11">
+      <c r="E26" s="8">
         <v>50</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="8">
         <v>5</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="I26" s="11" t="s">
+      <c r="I26" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="K26" s="9" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="27" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E27" s="11">
+      <c r="E27" s="8">
         <v>50</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="8">
         <v>5</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="I27" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="K27" s="12" t="s">
+      <c r="K27" s="9" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="28" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E28" s="11">
+      <c r="E28" s="8">
         <v>100</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="8">
         <v>7</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="I28" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K28" s="12" t="s">
+      <c r="K28" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E29" s="11">
+      <c r="E29" s="8">
         <v>100</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="8">
         <v>7</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="H29" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="I29" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="K29" s="9" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="30" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E30" s="11">
+      <c r="E30" s="8">
         <v>100</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="8">
         <v>7</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="H30" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="I30" s="11" t="s">
+      <c r="I30" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="K30" s="12" t="s">
+      <c r="K30" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="31" spans="5:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
     </row>
     <row r="32" spans="5:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
     </row>
     <row r="33" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
     </row>
     <row r="34" spans="5:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="H34" s="14" t="s">
+      <c r="H34" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="14" t="s">
+      <c r="I34" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="14" t="s">
+      <c r="J34" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K34" s="15" t="s">
+      <c r="K34" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="11">
+      <c r="E35" s="8">
         <v>30</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="8">
         <v>3</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="H35" s="11" t="s">
+      <c r="H35" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="I35" s="11" t="s">
+      <c r="I35" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="J35" s="11" t="s">
+      <c r="J35" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="K35" s="12" t="s">
+      <c r="K35" s="9" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="36" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E36" s="11">
+      <c r="E36" s="8">
         <v>30</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="8">
         <v>3</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="H36" s="11" t="s">
+      <c r="H36" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="I36" s="11" t="s">
+      <c r="I36" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="J36" s="11" t="s">
+      <c r="J36" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="K36" s="12" t="s">
+      <c r="K36" s="9" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="37" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="11">
+      <c r="E37" s="8">
         <v>30</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="8">
         <v>3</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="H37" s="11" t="s">
+      <c r="H37" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="I37" s="11" t="s">
+      <c r="I37" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="J37" s="11" t="s">
+      <c r="J37" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="K37" s="12" t="s">
+      <c r="K37" s="9" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="38" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="11">
+      <c r="E38" s="8">
         <v>50</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="8">
         <v>5</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="H38" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="I38" s="11" t="s">
+      <c r="I38" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="J38" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="K38" s="12" t="s">
+      <c r="K38" s="9" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="39" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E39" s="11">
+      <c r="E39" s="8">
         <v>50</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="8">
         <v>5</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="H39" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="I39" s="11" t="s">
+      <c r="I39" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="J39" s="11" t="s">
+      <c r="J39" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="K39" s="12" t="s">
+      <c r="K39" s="9" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="40" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E40" s="11">
+      <c r="E40" s="8">
         <v>50</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="8">
         <v>5</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="G40" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="H40" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="I40" s="11" t="s">
+      <c r="I40" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="J40" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="K40" s="12" t="s">
+      <c r="K40" s="9" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="41" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E41" s="11">
+      <c r="E41" s="8">
         <v>100</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="8">
         <v>7</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G41" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="H41" s="11" t="s">
+      <c r="H41" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="I41" s="11" t="s">
+      <c r="I41" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="J41" s="11" t="s">
+      <c r="J41" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="K41" s="12" t="s">
+      <c r="K41" s="9" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="42" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E42" s="11">
+      <c r="E42" s="8">
         <v>100</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="8">
         <v>7</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="G42" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="H42" s="11" t="s">
+      <c r="H42" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="I42" s="11" t="s">
+      <c r="I42" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="J42" s="11" t="s">
+      <c r="J42" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="K42" s="12" t="s">
+      <c r="K42" s="9" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="43" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E43" s="11">
+      <c r="E43" s="8">
         <v>100</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="8">
         <v>7</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="G43" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="H43" s="11" t="s">
+      <c r="H43" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="I43" s="11" t="s">
+      <c r="I43" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="J43" s="11" t="s">
+      <c r="J43" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="K43" s="12" t="s">
+      <c r="K43" s="9" t="s">
         <v>475</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB71A52F-7C6D-435D-AAFE-E90B99DD9484}">
+  <dimension ref="F9:M36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="6:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="F9" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>482</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>483</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>484</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="10" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F10" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="G10" s="21">
+        <v>30</v>
+      </c>
+      <c r="H10" s="21">
+        <v>3</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="11" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F11" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="G11" s="21">
+        <v>30</v>
+      </c>
+      <c r="H11" s="21">
+        <v>5</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="12" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F12" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="G12" s="21">
+        <v>30</v>
+      </c>
+      <c r="H12" s="21">
+        <v>7</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="13" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F13" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="G13" s="21">
+        <v>50</v>
+      </c>
+      <c r="H13" s="21">
+        <v>3</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="14" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F14" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="G14" s="21">
+        <v>50</v>
+      </c>
+      <c r="H14" s="21">
+        <v>5</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="15" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F15" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="G15" s="21">
+        <v>50</v>
+      </c>
+      <c r="H15" s="21">
+        <v>7</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F16" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="G16" s="21">
+        <v>100</v>
+      </c>
+      <c r="H16" s="21">
+        <v>3</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="17" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F17" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="G17" s="21">
+        <v>100</v>
+      </c>
+      <c r="H17" s="21">
+        <v>5</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="18" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F18" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="G18" s="21">
+        <v>100</v>
+      </c>
+      <c r="H18" s="21">
+        <v>7</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>508</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="19" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F19" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="G19" s="21">
+        <v>30</v>
+      </c>
+      <c r="H19" s="21">
+        <v>3</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="20" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F20" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="G20" s="21">
+        <v>30</v>
+      </c>
+      <c r="H20" s="21">
+        <v>5</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>512</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>513</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>513</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>514</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="21" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F21" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="G21" s="21">
+        <v>30</v>
+      </c>
+      <c r="H21" s="21">
+        <v>7</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>515</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>516</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>517</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>517</v>
+      </c>
+      <c r="M21" s="21" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="22" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F22" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="G22" s="21">
+        <v>50</v>
+      </c>
+      <c r="H22" s="21">
+        <v>3</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>519</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>519</v>
+      </c>
+      <c r="M22" s="21" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="23" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F23" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="G23" s="21">
+        <v>50</v>
+      </c>
+      <c r="H23" s="21">
+        <v>5</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="L23" s="21" t="s">
+        <v>523</v>
+      </c>
+      <c r="M23" s="21" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="24" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F24" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="G24" s="21">
+        <v>50</v>
+      </c>
+      <c r="H24" s="21">
+        <v>7</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>526</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="L24" s="21" t="s">
+        <v>519</v>
+      </c>
+      <c r="M24" s="21" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="25" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F25" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="G25" s="21">
+        <v>100</v>
+      </c>
+      <c r="H25" s="21">
+        <v>3</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="M25" s="21" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="26" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F26" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="G26" s="21">
+        <v>100</v>
+      </c>
+      <c r="H26" s="21">
+        <v>5</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>530</v>
+      </c>
+      <c r="K26" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="L26" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="M26" s="21" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="27" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F27" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="G27" s="21">
+        <v>100</v>
+      </c>
+      <c r="H27" s="21">
+        <v>7</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="K27" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="L27" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="M27" s="21" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="28" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F28" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="G28" s="21">
+        <v>30</v>
+      </c>
+      <c r="H28" s="21">
+        <v>3</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="K28" s="21" t="s">
+        <v>536</v>
+      </c>
+      <c r="L28" s="21" t="s">
+        <v>537</v>
+      </c>
+      <c r="M28" s="21" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="29" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F29" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="G29" s="21">
+        <v>30</v>
+      </c>
+      <c r="H29" s="21">
+        <v>5</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="K29" s="21" t="s">
+        <v>541</v>
+      </c>
+      <c r="L29" s="21" t="s">
+        <v>542</v>
+      </c>
+      <c r="M29" s="21" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="30" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F30" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="G30" s="21">
+        <v>30</v>
+      </c>
+      <c r="H30" s="21">
+        <v>7</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>545</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="L30" s="21" t="s">
+        <v>547</v>
+      </c>
+      <c r="M30" s="21" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="31" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F31" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="G31" s="21">
+        <v>50</v>
+      </c>
+      <c r="H31" s="21">
+        <v>3</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>549</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="K31" s="21" t="s">
+        <v>551</v>
+      </c>
+      <c r="L31" s="21" t="s">
+        <v>552</v>
+      </c>
+      <c r="M31" s="21" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="32" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F32" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="G32" s="21">
+        <v>50</v>
+      </c>
+      <c r="H32" s="21">
+        <v>5</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>554</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>555</v>
+      </c>
+      <c r="K32" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="L32" s="21" t="s">
+        <v>557</v>
+      </c>
+      <c r="M32" s="21" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="33" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F33" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="G33" s="21">
+        <v>50</v>
+      </c>
+      <c r="H33" s="21">
+        <v>7</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>559</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="K33" s="21" t="s">
+        <v>561</v>
+      </c>
+      <c r="L33" s="21" t="s">
+        <v>562</v>
+      </c>
+      <c r="M33" s="21" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="34" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F34" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="G34" s="21">
+        <v>100</v>
+      </c>
+      <c r="H34" s="21">
+        <v>3</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="J34" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="K34" s="21" t="s">
+        <v>566</v>
+      </c>
+      <c r="L34" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="M34" s="21" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="35" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F35" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="G35" s="21">
+        <v>100</v>
+      </c>
+      <c r="H35" s="21">
+        <v>5</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>569</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>570</v>
+      </c>
+      <c r="K35" s="21" t="s">
+        <v>571</v>
+      </c>
+      <c r="L35" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="M35" s="21" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="36" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F36" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="G36" s="23">
+        <v>100</v>
+      </c>
+      <c r="H36" s="23">
+        <v>7</v>
+      </c>
+      <c r="I36" s="23" t="s">
+        <v>574</v>
+      </c>
+      <c r="J36" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="K36" s="23" t="s">
+        <v>576</v>
+      </c>
+      <c r="L36" s="23" t="s">
+        <v>577</v>
+      </c>
+      <c r="M36" s="23" t="s">
+        <v>578</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD86C23E-1169-4B47-899A-D2C61B3CC3B5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/File Naskah/File Skripsi/hasil pengujian training.xlsx
+++ b/File Naskah/File Skripsi/hasil pengujian training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SKRIPSI\Skripsi\File Naskah\File Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D52001-5FD5-42CC-BEA7-6F694C6026A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8244EC13-317E-4248-B7C2-DE84A7F1834D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{6E07EE4A-E083-4B73-A265-D447A504391A}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="587">
   <si>
     <t>Fold</t>
   </si>
@@ -1778,13 +1778,37 @@
   </si>
   <si>
     <t>95.72</t>
+  </si>
+  <si>
+    <t>Kelas</t>
+  </si>
+  <si>
+    <t>Citra</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Akurasi</t>
+  </si>
+  <si>
+    <t>Status Identifikasi</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>WithoutMask</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1825,6 +1849,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF374151"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1933,7 +1963,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1987,7 +2017,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1995,6 +2025,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7909,14 +7949,163 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD86C23E-1169-4B47-899A-D2C61B3CC3B5}">
-  <dimension ref="A1"/>
+  <dimension ref="H8:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H8" s="24"/>
+    </row>
+    <row r="11" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H11" s="25" t="s">
+        <v>585</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>579</v>
+      </c>
+      <c r="J11" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>581</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>582</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="12" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H12" s="26">
+        <v>1</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+    </row>
+    <row r="13" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H13" s="26">
+        <v>2</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+    </row>
+    <row r="14" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H14" s="26">
+        <v>3</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+    </row>
+    <row r="15" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H15" s="26">
+        <v>4</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+    </row>
+    <row r="16" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H16" s="26">
+        <v>5</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+    </row>
+    <row r="17" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H17" s="26">
+        <v>6</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>586</v>
+      </c>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+    </row>
+    <row r="18" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H18" s="26">
+        <v>7</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>586</v>
+      </c>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+    </row>
+    <row r="19" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H19" s="26">
+        <v>8</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>586</v>
+      </c>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+    </row>
+    <row r="20" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H20" s="26">
+        <v>9</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>586</v>
+      </c>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+    </row>
+    <row r="21" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H21" s="27">
+        <v>10</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>586</v>
+      </c>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/File Naskah/File Skripsi/hasil pengujian training.xlsx
+++ b/File Naskah/File Skripsi/hasil pengujian training.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SKRIPSI\Skripsi\File Naskah\File Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8244EC13-317E-4248-B7C2-DE84A7F1834D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CFFB6B-CD06-4857-8C07-E8B0D81AF013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{6E07EE4A-E083-4B73-A265-D447A504391A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{6E07EE4A-E083-4B73-A265-D447A504391A}"/>
   </bookViews>
   <sheets>
     <sheet name="ADAM" sheetId="1" r:id="rId1"/>
@@ -1848,13 +1848,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF374151"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF374151"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -2017,24 +2018,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2398,7 +2399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFBAD58-1D9D-47F5-97B2-84BBF49FF353}">
   <dimension ref="B3:K79"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:H79"/>
     </sheetView>
   </sheetViews>
@@ -6405,7 +6406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EB6818-E8A3-4566-A4B3-0D775A06DC11}">
   <dimension ref="E6:K43"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="N8" sqref="N8:U35"/>
     </sheetView>
   </sheetViews>
@@ -7200,8 +7201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB71A52F-7C6D-435D-AAFE-E90B99DD9484}">
   <dimension ref="F9:M36"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7215,28 +7216,28 @@
   </cols>
   <sheetData>
     <row r="9" spans="6:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="27" t="s">
         <v>480</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="27" t="s">
         <v>481</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="27" t="s">
         <v>482</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="27" t="s">
         <v>483</v>
       </c>
-      <c r="K9" s="22" t="s">
+      <c r="K9" s="27" t="s">
         <v>484</v>
       </c>
-      <c r="L9" s="22" t="s">
+      <c r="L9" s="27" t="s">
         <v>485</v>
       </c>
-      <c r="M9" s="22" t="s">
+      <c r="M9" s="27" t="s">
         <v>486</v>
       </c>
     </row>
@@ -7917,28 +7918,28 @@
       </c>
     </row>
     <row r="36" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F36" s="23" t="s">
+      <c r="F36" s="22" t="s">
         <v>435</v>
       </c>
-      <c r="G36" s="23">
+      <c r="G36" s="22">
         <v>100</v>
       </c>
-      <c r="H36" s="23">
+      <c r="H36" s="22">
         <v>7</v>
       </c>
-      <c r="I36" s="23" t="s">
+      <c r="I36" s="22" t="s">
         <v>574</v>
       </c>
-      <c r="J36" s="23" t="s">
+      <c r="J36" s="22" t="s">
         <v>575</v>
       </c>
-      <c r="K36" s="23" t="s">
+      <c r="K36" s="22" t="s">
         <v>576</v>
       </c>
-      <c r="L36" s="23" t="s">
+      <c r="L36" s="22" t="s">
         <v>577</v>
       </c>
-      <c r="M36" s="23" t="s">
+      <c r="M36" s="22" t="s">
         <v>578</v>
       </c>
     </row>
@@ -7951,7 +7952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD86C23E-1169-4B47-899A-D2C61B3CC3B5}">
   <dimension ref="H8:M21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
@@ -7962,147 +7963,147 @@
   </cols>
   <sheetData>
     <row r="8" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H8" s="24"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="11" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="24" t="s">
         <v>585</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="24" t="s">
         <v>580</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="K11" s="24" t="s">
         <v>581</v>
       </c>
-      <c r="L11" s="25" t="s">
+      <c r="L11" s="24" t="s">
         <v>582</v>
       </c>
-      <c r="M11" s="25" t="s">
+      <c r="M11" s="24" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="12" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H12" s="26">
+      <c r="H12" s="25">
         <v>1</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
     </row>
     <row r="13" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H13" s="26">
+      <c r="H13" s="25">
         <v>2</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
     </row>
     <row r="14" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H14" s="26">
+      <c r="H14" s="25">
         <v>3</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
     </row>
     <row r="15" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H15" s="26">
+      <c r="H15" s="25">
         <v>4</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
     </row>
     <row r="16" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H16" s="26">
+      <c r="H16" s="25">
         <v>5</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="I16" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
     </row>
     <row r="17" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H17" s="26">
+      <c r="H17" s="25">
         <v>6</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="25" t="s">
         <v>586</v>
       </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
     </row>
     <row r="18" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H18" s="26">
+      <c r="H18" s="25">
         <v>7</v>
       </c>
-      <c r="I18" s="26" t="s">
+      <c r="I18" s="25" t="s">
         <v>586</v>
       </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
     </row>
     <row r="19" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H19" s="26">
+      <c r="H19" s="25">
         <v>8</v>
       </c>
-      <c r="I19" s="26" t="s">
+      <c r="I19" s="25" t="s">
         <v>586</v>
       </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
     </row>
     <row r="20" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H20" s="26">
+      <c r="H20" s="25">
         <v>9</v>
       </c>
-      <c r="I20" s="26" t="s">
+      <c r="I20" s="25" t="s">
         <v>586</v>
       </c>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
     </row>
     <row r="21" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H21" s="27">
+      <c r="H21" s="26">
         <v>10</v>
       </c>
-      <c r="I21" s="27" t="s">
+      <c r="I21" s="26" t="s">
         <v>586</v>
       </c>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/File Naskah/File Skripsi/hasil pengujian training.xlsx
+++ b/File Naskah/File Skripsi/hasil pengujian training.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SKRIPSI\Skripsi\File Naskah\File Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CFFB6B-CD06-4857-8C07-E8B0D81AF013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22A7D49-78E8-4B4B-A391-4845BD38B93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{6E07EE4A-E083-4B73-A265-D447A504391A}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="4" xr2:uid="{6E07EE4A-E083-4B73-A265-D447A504391A}"/>
   </bookViews>
   <sheets>
     <sheet name="ADAM" sheetId="1" r:id="rId1"/>
@@ -1964,7 +1964,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1976,9 +1976,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2037,6 +2034,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2397,34 +2402,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFBAD58-1D9D-47F5-97B2-84BBF49FF353}">
-  <dimension ref="B3:K79"/>
+  <dimension ref="B3:K80"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H79"/>
+      <selection activeCell="B3" sqref="B3:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="1" max="3" width="9.140625" style="22"/>
+    <col min="4" max="4" width="17" style="22" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="22" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="22" customWidth="1"/>
+    <col min="7" max="7" width="13" style="22" customWidth="1"/>
+    <col min="8" max="8" width="10" style="22" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" style="22"/>
+    <col min="12" max="12" width="14.140625" style="22" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="22" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" style="22" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" style="22" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" style="22" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="22" t="s">
         <v>476</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="24">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="22" t="s">
         <v>477</v>
       </c>
     </row>
@@ -2452,19 +2460,19 @@
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="27" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2472,19 +2480,19 @@
       <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="27" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2492,171 +2500,163 @@
       <c r="C7" s="2">
         <v>3</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="28" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+    </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="22" t="s">
         <v>476</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="1">
         <v>50</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" s="22" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C10" s="3" t="s">
+    <row r="11" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="1"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="2">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
         <v>3</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="s">
         <v>476</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C16" s="1">
         <v>100</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" s="22" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C16" s="3" t="s">
+    <row r="17" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>28</v>
@@ -2665,411 +2665,411 @@
         <v>28</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="F19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C19" s="2">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C20" s="2">
         <v>3</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="22" t="s">
         <v>476</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C24" s="24">
         <v>30</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" s="22" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C24" s="3" t="s">
+    <row r="25" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H25" s="3" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C26" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C27" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C28" s="1">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C29" s="1">
         <v>4</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C29" s="2">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C30" s="2">
         <v>5</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="22" t="s">
         <v>476</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C32" s="1">
         <v>50</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" s="22" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C32" s="3" t="s">
+    <row r="33" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C33" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H33" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C33" s="1">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="1">
         <v>1</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C34" s="1">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
         <v>2</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C35" s="1">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
         <v>3</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C36" s="1">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
         <v>4</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C37" s="2">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="2">
         <v>5</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="22" t="s">
         <v>476</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C40" s="1">
         <v>100</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" s="22" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C40" s="3" t="s">
+    <row r="41" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C41" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H41" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C41" s="1">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C42" s="1">
         <v>1</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C42" s="1">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C43" s="1">
         <v>2</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C43" s="1">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C44" s="1">
         <v>3</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E43" s="1">
-        <v>10000</v>
-      </c>
-      <c r="F43" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G43" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H43" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C44" s="1">
-        <v>4</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="E44" s="1">
         <v>10000</v>
@@ -3084,155 +3084,155 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C45" s="2">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C45" s="1">
+        <v>4</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E45" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F45" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G45" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H45" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C46" s="2">
         <v>5</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50" s="22" t="s">
         <v>476</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C50" s="24">
         <v>30</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D50" s="22" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C50" s="3" t="s">
+    <row r="51" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C51" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H51" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C51" s="1">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C52" s="1">
         <v>1</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C52" s="1">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C53" s="1">
         <v>2</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C53" s="1">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C54" s="1">
         <v>3</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H54" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C54" s="1">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C55" s="1">
         <v>4</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C55" s="1">
-        <v>5</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>91</v>
@@ -3241,169 +3241,169 @@
         <v>91</v>
       </c>
       <c r="G55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C56" s="1">
+        <v>5</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C56" s="1">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C57" s="1">
         <v>6</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E57" s="1">
         <v>10000</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F57" s="1">
         <v>10000</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G57" s="1">
         <v>10000</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H57" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C57" s="2">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C58" s="2">
         <v>7</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E58" s="2">
         <v>10000</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F58" s="2">
         <v>10000</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G58" s="2">
         <v>10000</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H58" s="2">
         <v>10000</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="22" t="s">
         <v>476</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C61" s="1">
         <v>50</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D61" s="22" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="61" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C61" s="3" t="s">
+    <row r="62" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C62" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E62" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F62" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="G62" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="H62" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C62" s="1">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C63" s="1">
         <v>1</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="H63" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C63" s="1">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C64" s="1">
         <v>2</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C64" s="1">
-        <v>3</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C65" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C66" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>91</v>
@@ -3412,129 +3412,129 @@
         <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C67" s="1">
+        <v>5</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C68" s="1">
         <v>6</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E68" s="1">
         <v>10000</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F68" s="1">
         <v>10000</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G68" s="1">
         <v>10000</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H68" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C68" s="2">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C69" s="2">
         <v>7</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E69" s="2">
         <v>10000</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F69" s="2">
         <v>10000</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G69" s="2">
         <v>10000</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H69" s="2">
         <v>10000</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="22" t="s">
         <v>476</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C72" s="1">
         <v>100</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D72" s="22" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C72" s="3" t="s">
+    <row r="73" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="C73" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E73" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F73" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="G73" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H72" s="3" t="s">
+      <c r="H73" s="3" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C73" s="1">
-        <v>1</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C74" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C75" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>91</v>
@@ -3543,38 +3543,38 @@
         <v>91</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C76" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E76" s="1">
-        <v>10000</v>
-      </c>
-      <c r="F76" s="1">
-        <v>10000</v>
-      </c>
-      <c r="G76" s="1">
-        <v>10000</v>
-      </c>
-      <c r="H76" s="1">
-        <v>10000</v>
+        <v>114</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C77" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E77" s="1">
         <v>10000</v>
@@ -3591,10 +3591,10 @@
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C78" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E78" s="1">
         <v>10000</v>
@@ -3610,27 +3610,48 @@
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C79" s="2">
+      <c r="C79" s="1">
+        <v>6</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E79" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F79" s="1">
+        <v>10000</v>
+      </c>
+      <c r="G79" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H79" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C80" s="2">
         <v>7</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E80" s="2">
         <v>10000</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F80" s="2">
         <v>10000</v>
       </c>
-      <c r="G79" s="2">
+      <c r="G80" s="2">
         <v>10000</v>
       </c>
-      <c r="H79" s="2">
+      <c r="H80" s="2">
         <v>10000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3644,545 +3665,545 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="9.140625" style="18"/>
-    <col min="5" max="5" width="14.140625" style="18" customWidth="1"/>
-    <col min="6" max="9" width="9.140625" style="18"/>
+    <col min="3" max="4" width="9.140625" style="17"/>
+    <col min="5" max="5" width="14.140625" style="17" customWidth="1"/>
+    <col min="6" max="9" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D1" s="7">
+      <c r="D1" s="6">
         <v>30</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="2" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>1</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="4" spans="3:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>2</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="3:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>3</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>50</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="10" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>1</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="13" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>2</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="13" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>3</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="14" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>100</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="I18" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D19" s="14">
+      <c r="D19" s="13">
         <v>1</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="13" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <v>2</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H20" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="I20" s="13" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D21" s="15">
+      <c r="D21" s="14">
         <v>3</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>30</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="17" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="13" t="s">
+      <c r="I26" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D27" s="14">
+      <c r="D27" s="13">
         <v>1</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="H27" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="I27" s="14" t="s">
+      <c r="I27" s="13" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
-      <c r="D28" s="14">
+      <c r="D28" s="13">
         <v>2</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="14" t="s">
+      <c r="H28" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="14" t="s">
+      <c r="I28" s="13" t="s">
         <v>49</v>
       </c>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D29" s="14">
+      <c r="D29" s="13">
         <v>3</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H29" s="14" t="s">
+      <c r="H29" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="I29" s="14" t="s">
+      <c r="I29" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <v>4</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="6" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D31" s="17">
+      <c r="D31" s="16">
         <v>5</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G31" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H31" s="17" t="s">
+      <c r="H31" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I31" s="17" t="s">
+      <c r="I31" s="16" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="18">
         <v>50</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="17" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="H34" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I34" s="13" t="s">
+      <c r="I34" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D35" s="14">
+      <c r="D35" s="13">
         <v>1</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="G35" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H35" s="14" t="s">
+      <c r="H35" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="I35" s="14" t="s">
+      <c r="I35" s="13" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D36" s="14">
+      <c r="D36" s="13">
         <v>2</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F36" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H36" s="14" t="s">
+      <c r="H36" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I36" s="14" t="s">
+      <c r="I36" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D37" s="14">
+      <c r="D37" s="13">
         <v>3</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="F37" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G37" s="14" t="s">
+      <c r="G37" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="H37" s="14" t="s">
+      <c r="H37" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="I37" s="14" t="s">
+      <c r="I37" s="13" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D38" s="7">
+      <c r="D38" s="6">
         <v>4</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I38" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D39" s="17">
+      <c r="D39" s="16">
         <v>5</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="F39" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G39" s="17" t="s">
+      <c r="G39" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H39" s="17" t="s">
+      <c r="H39" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="I39" s="17" t="s">
+      <c r="I39" s="16" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4191,675 +4212,675 @@
       <c r="J40" s="4"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="18">
         <v>100</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="17" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H42" s="13" t="s">
+      <c r="H42" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I42" s="13" t="s">
+      <c r="I42" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D43" s="14">
+      <c r="D43" s="13">
         <v>1</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="F43" s="14" t="s">
+      <c r="F43" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="G43" s="14" t="s">
+      <c r="G43" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="H43" s="14" t="s">
+      <c r="H43" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="I43" s="14" t="s">
+      <c r="I43" s="13" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D44" s="14">
+      <c r="D44" s="13">
         <v>2</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G44" s="14" t="s">
+      <c r="G44" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H44" s="14" t="s">
+      <c r="H44" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="I44" s="14" t="s">
+      <c r="I44" s="13" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D45" s="14">
+      <c r="D45" s="13">
         <v>3</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F45" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G45" s="14" t="s">
+      <c r="G45" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="H45" s="14" t="s">
+      <c r="H45" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I45" s="14" t="s">
+      <c r="I45" s="13" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D46" s="7">
+      <c r="D46" s="6">
         <v>4</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="6">
         <v>10000</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="6">
         <v>10000</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="6">
         <v>10000</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="6">
         <v>10000</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D47" s="17">
+      <c r="D47" s="16">
         <v>5</v>
       </c>
-      <c r="E47" s="17" t="s">
+      <c r="E47" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="16">
         <v>10000</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G47" s="16">
         <v>10000</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H47" s="16">
         <v>10000</v>
       </c>
-      <c r="I47" s="17">
+      <c r="I47" s="16">
         <v>10000</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D50" s="18">
+      <c r="D50" s="17">
         <v>30</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="6" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="51" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B51" s="4"/>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E51" s="13" t="s">
+      <c r="E51" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G51" s="13" t="s">
+      <c r="G51" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H51" s="13" t="s">
+      <c r="H51" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I51" s="13" t="s">
+      <c r="I51" s="12" t="s">
         <v>1</v>
       </c>
       <c r="J51" s="4"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D52" s="14">
+      <c r="D52" s="13">
         <v>1</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="E52" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="F52" s="14" t="s">
+      <c r="F52" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G52" s="14" t="s">
+      <c r="G52" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="H52" s="14" t="s">
+      <c r="H52" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="I52" s="14" t="s">
+      <c r="I52" s="13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D53" s="14">
+      <c r="D53" s="13">
         <v>2</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E53" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="F53" s="14" t="s">
+      <c r="F53" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G53" s="14" t="s">
+      <c r="G53" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="H53" s="14" t="s">
+      <c r="H53" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="I53" s="14" t="s">
+      <c r="I53" s="13" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D54" s="14">
+      <c r="D54" s="13">
         <v>3</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="E54" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="F54" s="14" t="s">
+      <c r="F54" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="G54" s="14" t="s">
+      <c r="G54" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="H54" s="14" t="s">
+      <c r="H54" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="I54" s="14" t="s">
+      <c r="I54" s="13" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D55" s="14">
+      <c r="D55" s="13">
         <v>4</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="F55" s="14" t="s">
+      <c r="F55" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G55" s="14" t="s">
+      <c r="G55" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="H55" s="14" t="s">
+      <c r="H55" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="I55" s="14" t="s">
+      <c r="I55" s="13" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D56" s="14">
+      <c r="D56" s="13">
         <v>5</v>
       </c>
-      <c r="E56" s="14" t="s">
+      <c r="E56" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="F56" s="14" t="s">
+      <c r="F56" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G56" s="14" t="s">
+      <c r="G56" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H56" s="14" t="s">
+      <c r="H56" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I56" s="14" t="s">
+      <c r="I56" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D57" s="14">
+      <c r="D57" s="13">
         <v>6</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="E57" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="F57" s="14" t="s">
+      <c r="F57" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G57" s="14" t="s">
+      <c r="G57" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="H57" s="14" t="s">
+      <c r="H57" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="I57" s="14" t="s">
+      <c r="I57" s="13" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D58" s="15">
+      <c r="D58" s="14">
         <v>7</v>
       </c>
-      <c r="E58" s="15" t="s">
+      <c r="E58" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="F58" s="15" t="s">
+      <c r="F58" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G58" s="15" t="s">
+      <c r="G58" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H58" s="15" t="s">
+      <c r="H58" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I58" s="15" t="s">
+      <c r="I58" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D62" s="18">
+      <c r="D62" s="17">
         <v>50</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="6" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="63" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D63" s="13" t="s">
+      <c r="D63" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="13" t="s">
+      <c r="E63" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F63" s="13" t="s">
+      <c r="F63" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G63" s="13" t="s">
+      <c r="G63" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H63" s="13" t="s">
+      <c r="H63" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I63" s="13" t="s">
+      <c r="I63" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D64" s="14">
+      <c r="D64" s="13">
         <v>1</v>
       </c>
-      <c r="E64" s="14" t="s">
+      <c r="E64" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="F64" s="14" t="s">
+      <c r="F64" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="G64" s="14" t="s">
+      <c r="G64" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="H64" s="14" t="s">
+      <c r="H64" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I64" s="14" t="s">
+      <c r="I64" s="13" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D65" s="14">
+      <c r="D65" s="13">
         <v>2</v>
       </c>
-      <c r="E65" s="14" t="s">
+      <c r="E65" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="F65" s="14" t="s">
+      <c r="F65" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G65" s="14" t="s">
+      <c r="G65" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="H65" s="14" t="s">
+      <c r="H65" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="I65" s="14" t="s">
+      <c r="I65" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D66" s="14">
+      <c r="D66" s="13">
         <v>3</v>
       </c>
-      <c r="E66" s="14" t="s">
+      <c r="E66" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="F66" s="14" t="s">
+      <c r="F66" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G66" s="14" t="s">
+      <c r="G66" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="H66" s="14" t="s">
+      <c r="H66" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="I66" s="14" t="s">
+      <c r="I66" s="13" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D67" s="14">
+      <c r="D67" s="13">
         <v>4</v>
       </c>
-      <c r="E67" s="14" t="s">
+      <c r="E67" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="F67" s="14">
+      <c r="F67" s="13">
         <v>10000</v>
       </c>
-      <c r="G67" s="14">
+      <c r="G67" s="13">
         <v>10000</v>
       </c>
-      <c r="H67" s="14">
+      <c r="H67" s="13">
         <v>10000</v>
       </c>
-      <c r="I67" s="14">
+      <c r="I67" s="13">
         <v>10000</v>
       </c>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D68" s="14">
+      <c r="D68" s="13">
         <v>5</v>
       </c>
-      <c r="E68" s="14" t="s">
+      <c r="E68" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="F68" s="14" t="s">
+      <c r="F68" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G68" s="14" t="s">
+      <c r="G68" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="H68" s="14" t="s">
+      <c r="H68" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="I68" s="14" t="s">
+      <c r="I68" s="13" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D69" s="14">
+      <c r="D69" s="13">
         <v>6</v>
       </c>
-      <c r="E69" s="14" t="s">
+      <c r="E69" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="F69" s="14" t="s">
+      <c r="F69" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G69" s="14" t="s">
+      <c r="G69" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H69" s="14" t="s">
+      <c r="H69" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="I69" s="14" t="s">
+      <c r="I69" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D70" s="15">
+      <c r="D70" s="14">
         <v>7</v>
       </c>
-      <c r="E70" s="15" t="s">
+      <c r="E70" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="F70" s="15">
+      <c r="F70" s="14">
         <v>10000</v>
       </c>
-      <c r="G70" s="15">
+      <c r="G70" s="14">
         <v>10000</v>
       </c>
-      <c r="H70" s="15">
+      <c r="H70" s="14">
         <v>10000</v>
       </c>
-      <c r="I70" s="15">
+      <c r="I70" s="14">
         <v>10000</v>
       </c>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
     </row>
     <row r="73" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C73" s="18" t="s">
+      <c r="C73" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="D73" s="14">
+      <c r="D73" s="13">
         <v>100</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="6" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="74" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D74" s="13" t="s">
+      <c r="D74" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E74" s="13" t="s">
+      <c r="E74" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F74" s="13" t="s">
+      <c r="F74" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G74" s="13" t="s">
+      <c r="G74" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H74" s="13" t="s">
+      <c r="H74" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I74" s="13" t="s">
+      <c r="I74" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D75" s="14">
+      <c r="D75" s="13">
         <v>1</v>
       </c>
-      <c r="E75" s="14" t="s">
+      <c r="E75" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="F75" s="14" t="s">
+      <c r="F75" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G75" s="14" t="s">
+      <c r="G75" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H75" s="14" t="s">
+      <c r="H75" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="I75" s="14" t="s">
+      <c r="I75" s="13" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D76" s="14">
+      <c r="D76" s="13">
         <v>2</v>
       </c>
-      <c r="E76" s="14" t="s">
+      <c r="E76" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="F76" s="14" t="s">
+      <c r="F76" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G76" s="14" t="s">
+      <c r="G76" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="H76" s="14" t="s">
+      <c r="H76" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I76" s="14" t="s">
+      <c r="I76" s="13" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D77" s="14">
+      <c r="D77" s="13">
         <v>3</v>
       </c>
-      <c r="E77" s="14" t="s">
+      <c r="E77" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="F77" s="14" t="s">
+      <c r="F77" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G77" s="14" t="s">
+      <c r="G77" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="H77" s="14" t="s">
+      <c r="H77" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="I77" s="14" t="s">
+      <c r="I77" s="13" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="78" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D78" s="14">
+      <c r="D78" s="13">
         <v>4</v>
       </c>
-      <c r="E78" s="14" t="s">
+      <c r="E78" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="F78" s="14">
+      <c r="F78" s="13">
         <v>10000</v>
       </c>
-      <c r="G78" s="14">
+      <c r="G78" s="13">
         <v>10000</v>
       </c>
-      <c r="H78" s="14">
+      <c r="H78" s="13">
         <v>10000</v>
       </c>
-      <c r="I78" s="14">
+      <c r="I78" s="13">
         <v>10000</v>
       </c>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D79" s="14">
+      <c r="D79" s="13">
         <v>5</v>
       </c>
-      <c r="E79" s="14" t="s">
+      <c r="E79" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="F79" s="14" t="s">
+      <c r="F79" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G79" s="14" t="s">
+      <c r="G79" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="H79" s="14" t="s">
+      <c r="H79" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="I79" s="14" t="s">
+      <c r="I79" s="13" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D80" s="14">
+      <c r="D80" s="13">
         <v>6</v>
       </c>
-      <c r="E80" s="14" t="s">
+      <c r="E80" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="F80" s="14">
+      <c r="F80" s="13">
         <v>10000</v>
       </c>
-      <c r="G80" s="14">
+      <c r="G80" s="13">
         <v>10000</v>
       </c>
-      <c r="H80" s="14">
+      <c r="H80" s="13">
         <v>10000</v>
       </c>
-      <c r="I80" s="14">
+      <c r="I80" s="13">
         <v>10000</v>
       </c>
     </row>
     <row r="81" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D81" s="15">
+      <c r="D81" s="14">
         <v>7</v>
       </c>
-      <c r="E81" s="15" t="s">
+      <c r="E81" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="F81" s="15" t="s">
+      <c r="F81" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G81" s="15" t="s">
+      <c r="G81" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H81" s="15" t="s">
+      <c r="H81" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I81" s="15" t="s">
+      <c r="I81" s="14" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4884,1516 +4905,1516 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>30</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C7" s="7"/>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="7"/>
-      <c r="D8" s="14">
+      <c r="C8" s="6"/>
+      <c r="D8" s="13">
         <v>1</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="13" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="9" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="7"/>
-      <c r="D9" s="14">
+      <c r="C9" s="6"/>
+      <c r="D9" s="13">
         <v>2</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="13" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="10" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="7"/>
-      <c r="D10" s="15">
+      <c r="C10" s="6"/>
+      <c r="D10" s="14">
         <v>3</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="14" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="11" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>50</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C15" s="7"/>
-      <c r="D15" s="13" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="I15" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C16" s="7"/>
-      <c r="D16" s="14">
+      <c r="C16" s="6"/>
+      <c r="D16" s="13">
         <v>1</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="13" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="17" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="7"/>
-      <c r="D17" s="14">
+      <c r="C17" s="6"/>
+      <c r="D17" s="13">
         <v>2</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="13" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="18" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="7"/>
-      <c r="D18" s="15">
+      <c r="C18" s="6"/>
+      <c r="D18" s="14">
         <v>3</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="14" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="19" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>100</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C23" s="7"/>
-      <c r="D23" s="13" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="7"/>
-      <c r="D24" s="14">
+      <c r="C24" s="6"/>
+      <c r="D24" s="13">
         <v>1</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="H24" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="I24" s="14" t="s">
+      <c r="I24" s="13" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="25" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C25" s="7"/>
-      <c r="D25" s="14">
+      <c r="C25" s="6"/>
+      <c r="D25" s="13">
         <v>2</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="H25" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="I25" s="14" t="s">
+      <c r="I25" s="13" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="26" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C26" s="7"/>
-      <c r="D26" s="15">
+      <c r="C26" s="6"/>
+      <c r="D26" s="14">
         <v>3</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="14" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="27" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
     </row>
     <row r="29" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
     </row>
     <row r="30" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="6"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="5"/>
     </row>
     <row r="31" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
     </row>
     <row r="32" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <v>30</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
     </row>
     <row r="33" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C33" s="7"/>
-      <c r="D33" s="13" t="s">
+      <c r="C33" s="6"/>
+      <c r="D33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H33" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="13" t="s">
+      <c r="I33" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C34" s="7"/>
-      <c r="D34" s="14">
+      <c r="C34" s="6"/>
+      <c r="D34" s="13">
         <v>1</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="H34" s="14" t="s">
+      <c r="H34" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="I34" s="14" t="s">
+      <c r="I34" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="35" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C35" s="7"/>
-      <c r="D35" s="14">
+      <c r="C35" s="6"/>
+      <c r="D35" s="13">
         <v>2</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="G35" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="H35" s="14" t="s">
+      <c r="H35" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="I35" s="14" t="s">
+      <c r="I35" s="13" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="36" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C36" s="7"/>
-      <c r="D36" s="14">
+      <c r="C36" s="6"/>
+      <c r="D36" s="13">
         <v>3</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F36" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="H36" s="14" t="s">
+      <c r="H36" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="I36" s="14" t="s">
+      <c r="I36" s="13" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="37" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C37" s="7"/>
-      <c r="D37" s="7">
+      <c r="C37" s="6"/>
+      <c r="D37" s="6">
         <v>4</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="I37" s="7" t="s">
+      <c r="I37" s="6" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="38" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C38" s="7"/>
-      <c r="D38" s="17">
+      <c r="C38" s="6"/>
+      <c r="D38" s="16">
         <v>5</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F38" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="G38" s="17" t="s">
+      <c r="G38" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="H38" s="17" t="s">
+      <c r="H38" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="I38" s="17" t="s">
+      <c r="I38" s="16" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="39" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
     </row>
     <row r="40" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
     </row>
     <row r="41" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
     </row>
     <row r="42" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
     </row>
     <row r="43" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="6">
         <v>50</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
     </row>
     <row r="44" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C44" s="7"/>
-      <c r="D44" s="13" t="s">
+      <c r="C44" s="6"/>
+      <c r="D44" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="13" t="s">
+      <c r="G44" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="13" t="s">
+      <c r="H44" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="13" t="s">
+      <c r="I44" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C45" s="7"/>
-      <c r="D45" s="14">
+      <c r="C45" s="6"/>
+      <c r="D45" s="13">
         <v>1</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F45" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="G45" s="14" t="s">
+      <c r="G45" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="H45" s="14" t="s">
+      <c r="H45" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="I45" s="14" t="s">
+      <c r="I45" s="13" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="46" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C46" s="7"/>
-      <c r="D46" s="14">
+      <c r="C46" s="6"/>
+      <c r="D46" s="13">
         <v>2</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E46" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="F46" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="G46" s="14" t="s">
+      <c r="G46" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="H46" s="14" t="s">
+      <c r="H46" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="I46" s="14" t="s">
+      <c r="I46" s="13" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="47" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C47" s="7"/>
-      <c r="D47" s="14">
+      <c r="C47" s="6"/>
+      <c r="D47" s="13">
         <v>3</v>
       </c>
-      <c r="E47" s="14" t="s">
+      <c r="E47" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="F47" s="14" t="s">
+      <c r="F47" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="G47" s="14" t="s">
+      <c r="G47" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="H47" s="14" t="s">
+      <c r="H47" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="I47" s="14" t="s">
+      <c r="I47" s="13" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="48" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C48" s="7"/>
-      <c r="D48" s="7">
+      <c r="C48" s="6"/>
+      <c r="D48" s="6">
         <v>4</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="G48" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H48" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="I48" s="7" t="s">
+      <c r="I48" s="6" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="49" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C49" s="7"/>
-      <c r="D49" s="17">
+      <c r="C49" s="6"/>
+      <c r="D49" s="16">
         <v>5</v>
       </c>
-      <c r="E49" s="17" t="s">
+      <c r="E49" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="F49" s="17" t="s">
+      <c r="F49" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="G49" s="17" t="s">
+      <c r="G49" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="H49" s="17" t="s">
+      <c r="H49" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="I49" s="17" t="s">
+      <c r="I49" s="16" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="50" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
     </row>
     <row r="51" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
     </row>
     <row r="52" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
     </row>
     <row r="53" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="6">
         <v>100</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
     </row>
     <row r="54" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C54" s="7"/>
-      <c r="D54" s="13" t="s">
+      <c r="C54" s="6"/>
+      <c r="D54" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F54" s="13" t="s">
+      <c r="F54" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G54" s="13" t="s">
+      <c r="G54" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H54" s="13" t="s">
+      <c r="H54" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I54" s="13" t="s">
+      <c r="I54" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C55" s="7"/>
-      <c r="D55" s="14">
+      <c r="C55" s="6"/>
+      <c r="D55" s="13">
         <v>1</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="E55" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="F55" s="14" t="s">
+      <c r="F55" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="G55" s="14" t="s">
+      <c r="G55" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="H55" s="14" t="s">
+      <c r="H55" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="I55" s="14" t="s">
+      <c r="I55" s="13" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="56" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C56" s="7"/>
-      <c r="D56" s="14">
+      <c r="C56" s="6"/>
+      <c r="D56" s="13">
         <v>2</v>
       </c>
-      <c r="E56" s="14" t="s">
+      <c r="E56" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="F56" s="14" t="s">
+      <c r="F56" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="G56" s="14" t="s">
+      <c r="G56" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="H56" s="14" t="s">
+      <c r="H56" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="I56" s="14" t="s">
+      <c r="I56" s="13" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="57" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C57" s="7"/>
-      <c r="D57" s="14">
+      <c r="C57" s="6"/>
+      <c r="D57" s="13">
         <v>3</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="E57" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="F57" s="14" t="s">
+      <c r="F57" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="G57" s="14" t="s">
+      <c r="G57" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="H57" s="14" t="s">
+      <c r="H57" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="I57" s="14" t="s">
+      <c r="I57" s="13" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="58" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C58" s="7"/>
-      <c r="D58" s="7">
+      <c r="C58" s="6"/>
+      <c r="D58" s="6">
         <v>4</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="G58" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="H58" s="7" t="s">
+      <c r="H58" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="I58" s="7" t="s">
+      <c r="I58" s="6" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="59" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C59" s="7"/>
-      <c r="D59" s="17">
+      <c r="C59" s="6"/>
+      <c r="D59" s="16">
         <v>5</v>
       </c>
-      <c r="E59" s="17" t="s">
+      <c r="E59" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="F59" s="17" t="s">
+      <c r="F59" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="G59" s="17" t="s">
+      <c r="G59" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="H59" s="17" t="s">
+      <c r="H59" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="I59" s="17" t="s">
+      <c r="I59" s="16" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="60" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
     </row>
     <row r="61" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
     </row>
     <row r="62" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
     </row>
     <row r="63" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
     </row>
     <row r="64" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="6"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="5"/>
     </row>
     <row r="65" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D65" s="6">
         <v>30</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
     </row>
     <row r="66" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C66" s="7"/>
-      <c r="D66" s="13" t="s">
+      <c r="C66" s="6"/>
+      <c r="D66" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E66" s="13" t="s">
+      <c r="E66" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F66" s="13" t="s">
+      <c r="F66" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G66" s="13" t="s">
+      <c r="G66" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H66" s="13" t="s">
+      <c r="H66" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I66" s="13" t="s">
+      <c r="I66" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C67" s="7"/>
-      <c r="D67" s="14">
+      <c r="C67" s="6"/>
+      <c r="D67" s="13">
         <v>1</v>
       </c>
-      <c r="E67" s="14" t="s">
+      <c r="E67" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="F67" s="14" t="s">
+      <c r="F67" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="G67" s="14" t="s">
+      <c r="G67" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="H67" s="14" t="s">
+      <c r="H67" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="I67" s="14" t="s">
+      <c r="I67" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="68" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C68" s="7"/>
-      <c r="D68" s="14">
+      <c r="C68" s="6"/>
+      <c r="D68" s="13">
         <v>2</v>
       </c>
-      <c r="E68" s="14" t="s">
+      <c r="E68" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="F68" s="14" t="s">
+      <c r="F68" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="G68" s="14" t="s">
+      <c r="G68" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="H68" s="14" t="s">
+      <c r="H68" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="I68" s="14" t="s">
+      <c r="I68" s="13" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="69" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C69" s="7"/>
-      <c r="D69" s="14">
+      <c r="C69" s="6"/>
+      <c r="D69" s="13">
         <v>3</v>
       </c>
-      <c r="E69" s="14" t="s">
+      <c r="E69" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="F69" s="14" t="s">
+      <c r="F69" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="G69" s="14" t="s">
+      <c r="G69" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="H69" s="14" t="s">
+      <c r="H69" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="I69" s="14" t="s">
+      <c r="I69" s="13" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="70" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C70" s="7"/>
-      <c r="D70" s="14">
+      <c r="C70" s="6"/>
+      <c r="D70" s="13">
         <v>4</v>
       </c>
-      <c r="E70" s="14" t="s">
+      <c r="E70" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="F70" s="14" t="s">
+      <c r="F70" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="G70" s="14" t="s">
+      <c r="G70" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="H70" s="14" t="s">
+      <c r="H70" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="I70" s="14" t="s">
+      <c r="I70" s="13" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="71" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C71" s="7"/>
-      <c r="D71" s="14">
+      <c r="C71" s="6"/>
+      <c r="D71" s="13">
         <v>5</v>
       </c>
-      <c r="E71" s="14" t="s">
+      <c r="E71" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="F71" s="14" t="s">
+      <c r="F71" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="G71" s="14" t="s">
+      <c r="G71" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="H71" s="14" t="s">
+      <c r="H71" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="I71" s="14" t="s">
+      <c r="I71" s="13" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="72" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C72" s="7"/>
-      <c r="D72" s="14">
+      <c r="C72" s="6"/>
+      <c r="D72" s="13">
         <v>6</v>
       </c>
-      <c r="E72" s="14" t="s">
+      <c r="E72" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="F72" s="14" t="s">
+      <c r="F72" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="G72" s="14" t="s">
+      <c r="G72" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="H72" s="14" t="s">
+      <c r="H72" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="I72" s="14" t="s">
+      <c r="I72" s="13" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="73" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C73" s="7"/>
-      <c r="D73" s="17">
+      <c r="C73" s="6"/>
+      <c r="D73" s="16">
         <v>7</v>
       </c>
-      <c r="E73" s="17" t="s">
+      <c r="E73" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="F73" s="17" t="s">
+      <c r="F73" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="G73" s="17" t="s">
+      <c r="G73" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="H73" s="17" t="s">
+      <c r="H73" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="I73" s="17" t="s">
+      <c r="I73" s="16" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="74" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
     </row>
     <row r="75" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
     </row>
     <row r="76" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D76" s="6">
         <v>50</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E76" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
     </row>
     <row r="77" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C77" s="7"/>
-      <c r="D77" s="13" t="s">
+      <c r="C77" s="6"/>
+      <c r="D77" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E77" s="13" t="s">
+      <c r="E77" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F77" s="13" t="s">
+      <c r="F77" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G77" s="13" t="s">
+      <c r="G77" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H77" s="13" t="s">
+      <c r="H77" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I77" s="13" t="s">
+      <c r="I77" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C78" s="7"/>
-      <c r="D78" s="14">
+      <c r="C78" s="6"/>
+      <c r="D78" s="13">
         <v>1</v>
       </c>
-      <c r="E78" s="14" t="s">
+      <c r="E78" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="F78" s="14" t="s">
+      <c r="F78" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="G78" s="14" t="s">
+      <c r="G78" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="H78" s="14" t="s">
+      <c r="H78" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="I78" s="14" t="s">
+      <c r="I78" s="13" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="79" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C79" s="7"/>
-      <c r="D79" s="14">
+      <c r="C79" s="6"/>
+      <c r="D79" s="13">
         <v>2</v>
       </c>
-      <c r="E79" s="14" t="s">
+      <c r="E79" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="F79" s="14" t="s">
+      <c r="F79" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="G79" s="14" t="s">
+      <c r="G79" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="H79" s="14" t="s">
+      <c r="H79" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="I79" s="14" t="s">
+      <c r="I79" s="13" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="80" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C80" s="7"/>
-      <c r="D80" s="14">
+      <c r="C80" s="6"/>
+      <c r="D80" s="13">
         <v>3</v>
       </c>
-      <c r="E80" s="14" t="s">
+      <c r="E80" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="F80" s="14" t="s">
+      <c r="F80" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="G80" s="14" t="s">
+      <c r="G80" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="H80" s="14" t="s">
+      <c r="H80" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="I80" s="14" t="s">
+      <c r="I80" s="13" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="81" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C81" s="7"/>
-      <c r="D81" s="14">
+      <c r="C81" s="6"/>
+      <c r="D81" s="13">
         <v>4</v>
       </c>
-      <c r="E81" s="14" t="s">
+      <c r="E81" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="F81" s="14" t="s">
+      <c r="F81" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="G81" s="14" t="s">
+      <c r="G81" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="H81" s="14" t="s">
+      <c r="H81" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="I81" s="14" t="s">
+      <c r="I81" s="13" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="82" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C82" s="7"/>
-      <c r="D82" s="14">
+      <c r="C82" s="6"/>
+      <c r="D82" s="13">
         <v>5</v>
       </c>
-      <c r="E82" s="14" t="s">
+      <c r="E82" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="F82" s="14" t="s">
+      <c r="F82" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="G82" s="14" t="s">
+      <c r="G82" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="H82" s="14" t="s">
+      <c r="H82" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="I82" s="14" t="s">
+      <c r="I82" s="13" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="83" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C83" s="7"/>
-      <c r="D83" s="14">
+      <c r="C83" s="6"/>
+      <c r="D83" s="13">
         <v>6</v>
       </c>
-      <c r="E83" s="14" t="s">
+      <c r="E83" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="F83" s="14" t="s">
+      <c r="F83" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="G83" s="14" t="s">
+      <c r="G83" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="H83" s="14" t="s">
+      <c r="H83" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="I83" s="14" t="s">
+      <c r="I83" s="13" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="84" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C84" s="7"/>
-      <c r="D84" s="17">
+      <c r="C84" s="6"/>
+      <c r="D84" s="16">
         <v>7</v>
       </c>
-      <c r="E84" s="17" t="s">
+      <c r="E84" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="F84" s="17" t="s">
+      <c r="F84" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="G84" s="17" t="s">
+      <c r="G84" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="H84" s="17" t="s">
+      <c r="H84" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="I84" s="17" t="s">
+      <c r="I84" s="16" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="85" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
     </row>
     <row r="86" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
     </row>
     <row r="87" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D87" s="6">
         <v>100</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="E87" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
     </row>
     <row r="88" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C88" s="7"/>
-      <c r="D88" s="13" t="s">
+      <c r="C88" s="6"/>
+      <c r="D88" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E88" s="13" t="s">
+      <c r="E88" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F88" s="13" t="s">
+      <c r="F88" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G88" s="13" t="s">
+      <c r="G88" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H88" s="13" t="s">
+      <c r="H88" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I88" s="13" t="s">
+      <c r="I88" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C89" s="7"/>
-      <c r="D89" s="14">
+      <c r="C89" s="6"/>
+      <c r="D89" s="13">
         <v>1</v>
       </c>
-      <c r="E89" s="14" t="s">
+      <c r="E89" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="F89" s="14" t="s">
+      <c r="F89" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="G89" s="14" t="s">
+      <c r="G89" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="H89" s="14" t="s">
+      <c r="H89" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="I89" s="14" t="s">
+      <c r="I89" s="13" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="90" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C90" s="7"/>
-      <c r="D90" s="14">
+      <c r="C90" s="6"/>
+      <c r="D90" s="13">
         <v>2</v>
       </c>
-      <c r="E90" s="14" t="s">
+      <c r="E90" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="F90" s="14" t="s">
+      <c r="F90" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="G90" s="14" t="s">
+      <c r="G90" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="H90" s="14" t="s">
+      <c r="H90" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="I90" s="14" t="s">
+      <c r="I90" s="13" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="91" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C91" s="7"/>
-      <c r="D91" s="14">
+      <c r="C91" s="6"/>
+      <c r="D91" s="13">
         <v>3</v>
       </c>
-      <c r="E91" s="14" t="s">
+      <c r="E91" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="F91" s="14" t="s">
+      <c r="F91" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="G91" s="14" t="s">
+      <c r="G91" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="H91" s="14" t="s">
+      <c r="H91" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="I91" s="14" t="s">
+      <c r="I91" s="13" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="92" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C92" s="7"/>
-      <c r="D92" s="14">
+      <c r="C92" s="6"/>
+      <c r="D92" s="13">
         <v>4</v>
       </c>
-      <c r="E92" s="14" t="s">
+      <c r="E92" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="F92" s="14" t="s">
+      <c r="F92" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="G92" s="14" t="s">
+      <c r="G92" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="H92" s="14" t="s">
+      <c r="H92" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="I92" s="14" t="s">
+      <c r="I92" s="13" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="93" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C93" s="7"/>
-      <c r="D93" s="14">
+      <c r="C93" s="6"/>
+      <c r="D93" s="13">
         <v>5</v>
       </c>
-      <c r="E93" s="14" t="s">
+      <c r="E93" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="F93" s="14" t="s">
+      <c r="F93" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G93" s="14" t="s">
+      <c r="G93" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="H93" s="14" t="s">
+      <c r="H93" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="I93" s="14" t="s">
+      <c r="I93" s="13" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="94" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C94" s="7"/>
-      <c r="D94" s="14">
+      <c r="C94" s="6"/>
+      <c r="D94" s="13">
         <v>6</v>
       </c>
-      <c r="E94" s="14" t="s">
+      <c r="E94" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="F94" s="14" t="s">
+      <c r="F94" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="G94" s="14" t="s">
+      <c r="G94" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="H94" s="14" t="s">
+      <c r="H94" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="I94" s="14" t="s">
+      <c r="I94" s="13" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="95" spans="3:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C95" s="7"/>
-      <c r="D95" s="17">
+      <c r="C95" s="6"/>
+      <c r="D95" s="16">
         <v>7</v>
       </c>
-      <c r="E95" s="17" t="s">
+      <c r="E95" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="F95" s="17" t="s">
+      <c r="F95" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="G95" s="17" t="s">
+      <c r="G95" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="H95" s="17" t="s">
+      <c r="H95" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="I95" s="17" t="s">
+      <c r="I95" s="16" t="s">
         <v>378</v>
       </c>
     </row>
@@ -6425,770 +6446,770 @@
   </cols>
   <sheetData>
     <row r="6" spans="5:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
     </row>
     <row r="8" spans="5:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>30</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>3</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="10" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>30</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>3</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>30</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>3</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="12" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>50</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>5</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="8" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="13" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>50</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>5</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="14" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>50</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>5</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="8" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="15" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>100</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>7</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>100</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>7</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>100</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>7</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="5:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
     </row>
     <row r="19" spans="5:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
     </row>
     <row r="20" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
     </row>
     <row r="21" spans="5:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="K21" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="8">
+      <c r="E22" s="7">
         <v>30</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="7">
         <v>3</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="K22" s="8" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="23" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="8">
+      <c r="E23" s="7">
         <v>30</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="7">
         <v>3</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="8" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="24" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="8">
+      <c r="E24" s="7">
         <v>30</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="7">
         <v>3</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J24" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="K24" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="25" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="8">
+      <c r="E25" s="7">
         <v>50</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="7">
         <v>5</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J25" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="K25" s="8" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="26" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="8">
+      <c r="E26" s="7">
         <v>50</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="7">
         <v>5</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="I26" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="J26" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="K26" s="8" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="27" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E27" s="8">
+      <c r="E27" s="7">
         <v>50</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="7">
         <v>5</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="I27" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="K27" s="9" t="s">
+      <c r="K27" s="8" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="28" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E28" s="8">
+      <c r="E28" s="7">
         <v>100</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="7">
         <v>7</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="I28" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J28" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="K28" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="29" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E29" s="8">
+      <c r="E29" s="7">
         <v>100</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="7">
         <v>7</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="I29" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="K29" s="9" t="s">
+      <c r="K29" s="8" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="30" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E30" s="8">
+      <c r="E30" s="7">
         <v>100</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="7">
         <v>7</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="I30" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K30" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="31" spans="5:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
     </row>
     <row r="32" spans="5:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
     </row>
     <row r="33" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
     </row>
     <row r="34" spans="5:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="H34" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="11" t="s">
+      <c r="I34" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="11" t="s">
+      <c r="J34" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K34" s="12" t="s">
+      <c r="K34" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E35" s="8">
+      <c r="E35" s="7">
         <v>30</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="7">
         <v>3</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="I35" s="8" t="s">
+      <c r="I35" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="J35" s="8" t="s">
+      <c r="J35" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="K35" s="8" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="36" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E36" s="8">
+      <c r="E36" s="7">
         <v>30</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="7">
         <v>3</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H36" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="I36" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="J36" s="8" t="s">
+      <c r="J36" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="K36" s="9" t="s">
+      <c r="K36" s="8" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="37" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E37" s="8">
+      <c r="E37" s="7">
         <v>30</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="7">
         <v>3</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="H37" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="I37" s="8" t="s">
+      <c r="I37" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="J37" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="K37" s="9" t="s">
+      <c r="K37" s="8" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="38" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="8">
+      <c r="E38" s="7">
         <v>50</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="7">
         <v>5</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="I38" s="8" t="s">
+      <c r="I38" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="J38" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="K38" s="9" t="s">
+      <c r="K38" s="8" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="39" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E39" s="8">
+      <c r="E39" s="7">
         <v>50</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="7">
         <v>5</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="I39" s="8" t="s">
+      <c r="I39" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="J39" s="8" t="s">
+      <c r="J39" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="K39" s="9" t="s">
+      <c r="K39" s="8" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="40" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E40" s="8">
+      <c r="E40" s="7">
         <v>50</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="7">
         <v>5</v>
       </c>
-      <c r="G40" s="8" t="s">
+      <c r="G40" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="H40" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="I40" s="8" t="s">
+      <c r="I40" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="J40" s="8" t="s">
+      <c r="J40" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="K40" s="9" t="s">
+      <c r="K40" s="8" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="41" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E41" s="8">
+      <c r="E41" s="7">
         <v>100</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="7">
         <v>7</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="H41" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="I41" s="8" t="s">
+      <c r="I41" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="J41" s="8" t="s">
+      <c r="J41" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="K41" s="9" t="s">
+      <c r="K41" s="8" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="42" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E42" s="8">
+      <c r="E42" s="7">
         <v>100</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="7">
         <v>7</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="H42" s="8" t="s">
+      <c r="H42" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="I42" s="8" t="s">
+      <c r="I42" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="J42" s="8" t="s">
+      <c r="J42" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="K42" s="9" t="s">
+      <c r="K42" s="8" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="43" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E43" s="8">
+      <c r="E43" s="7">
         <v>100</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="7">
         <v>7</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="G43" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="H43" s="8" t="s">
+      <c r="H43" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="I43" s="8" t="s">
+      <c r="I43" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="J43" s="8" t="s">
+      <c r="J43" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="K43" s="9" t="s">
+      <c r="K43" s="8" t="s">
         <v>475</v>
       </c>
     </row>
@@ -7201,8 +7222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB71A52F-7C6D-435D-AAFE-E90B99DD9484}">
   <dimension ref="F9:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:M36"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7216,730 +7237,730 @@
   </cols>
   <sheetData>
     <row r="9" spans="6:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="26" t="s">
         <v>480</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="26" t="s">
         <v>481</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="26" t="s">
         <v>482</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="26" t="s">
         <v>483</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="26" t="s">
         <v>484</v>
       </c>
-      <c r="L9" s="27" t="s">
+      <c r="L9" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="M9" s="27" t="s">
+      <c r="M9" s="26" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="10" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="20">
         <v>30</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="20">
         <v>3</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="J10" s="20" t="s">
         <v>488</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="K10" s="20" t="s">
         <v>488</v>
       </c>
-      <c r="L10" s="21" t="s">
+      <c r="L10" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="M10" s="21" t="s">
+      <c r="M10" s="20" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="11" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="20">
         <v>30</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="20">
         <v>5</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="20" t="s">
         <v>490</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="20" t="s">
         <v>491</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="20" t="s">
         <v>491</v>
       </c>
-      <c r="L11" s="21" t="s">
+      <c r="L11" s="20" t="s">
         <v>491</v>
       </c>
-      <c r="M11" s="21" t="s">
+      <c r="M11" s="20" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="12" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="20">
         <v>30</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="20">
         <v>7</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="20" t="s">
         <v>492</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="20" t="s">
         <v>493</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="K12" s="20" t="s">
         <v>494</v>
       </c>
-      <c r="L12" s="21" t="s">
+      <c r="L12" s="20" t="s">
         <v>493</v>
       </c>
-      <c r="M12" s="21" t="s">
+      <c r="M12" s="20" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="13" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="20">
         <v>50</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="20">
         <v>3</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="20" t="s">
         <v>495</v>
       </c>
-      <c r="J13" s="21" t="s">
+      <c r="J13" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="K13" s="21" t="s">
+      <c r="K13" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="L13" s="21" t="s">
+      <c r="L13" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="M13" s="21" t="s">
+      <c r="M13" s="20" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="14" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="20">
         <v>50</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="20">
         <v>5</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="20" t="s">
         <v>497</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="J14" s="20" t="s">
         <v>498</v>
       </c>
-      <c r="K14" s="21" t="s">
+      <c r="K14" s="20" t="s">
         <v>498</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="L14" s="20" t="s">
         <v>498</v>
       </c>
-      <c r="M14" s="21" t="s">
+      <c r="M14" s="20" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="15" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="20">
         <v>50</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="20">
         <v>7</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="J15" s="21" t="s">
+      <c r="J15" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="K15" s="21" t="s">
+      <c r="K15" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="L15" s="21" t="s">
+      <c r="L15" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="M15" s="21" t="s">
+      <c r="M15" s="20" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="16" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="20">
         <v>100</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="20">
         <v>3</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="20" t="s">
         <v>501</v>
       </c>
-      <c r="J16" s="21" t="s">
+      <c r="J16" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="K16" s="21" t="s">
+      <c r="K16" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="L16" s="21" t="s">
+      <c r="L16" s="20" t="s">
         <v>503</v>
       </c>
-      <c r="M16" s="21" t="s">
+      <c r="M16" s="20" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="17" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="20">
         <v>100</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="20">
         <v>5</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I17" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="J17" s="21" t="s">
+      <c r="J17" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="K17" s="21" t="s">
+      <c r="K17" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="L17" s="21" t="s">
+      <c r="L17" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="M17" s="21" t="s">
+      <c r="M17" s="20" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="18" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="20">
         <v>100</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="20">
         <v>7</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I18" s="20" t="s">
         <v>507</v>
       </c>
-      <c r="J18" s="21" t="s">
+      <c r="J18" s="20" t="s">
         <v>508</v>
       </c>
-      <c r="K18" s="21" t="s">
+      <c r="K18" s="20" t="s">
         <v>508</v>
       </c>
-      <c r="L18" s="21" t="s">
+      <c r="L18" s="20" t="s">
         <v>509</v>
       </c>
-      <c r="M18" s="21" t="s">
+      <c r="M18" s="20" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="19" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="20" t="s">
         <v>418</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="20">
         <v>30</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="20">
         <v>3</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="20" t="s">
         <v>419</v>
       </c>
-      <c r="J19" s="21" t="s">
+      <c r="J19" s="20" t="s">
         <v>510</v>
       </c>
-      <c r="K19" s="21" t="s">
+      <c r="K19" s="20" t="s">
         <v>510</v>
       </c>
-      <c r="L19" s="21" t="s">
+      <c r="L19" s="20" t="s">
         <v>511</v>
       </c>
-      <c r="M19" s="21" t="s">
+      <c r="M19" s="20" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="20" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="20" t="s">
         <v>418</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="20">
         <v>30</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="20">
         <v>5</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="20" t="s">
         <v>512</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="J20" s="20" t="s">
         <v>513</v>
       </c>
-      <c r="K20" s="21" t="s">
+      <c r="K20" s="20" t="s">
         <v>513</v>
       </c>
-      <c r="L20" s="21" t="s">
+      <c r="L20" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="M20" s="21" t="s">
+      <c r="M20" s="20" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="21" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="20" t="s">
         <v>418</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="20">
         <v>30</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="20">
         <v>7</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I21" s="20" t="s">
         <v>515</v>
       </c>
-      <c r="J21" s="21" t="s">
+      <c r="J21" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="K21" s="21" t="s">
+      <c r="K21" s="20" t="s">
         <v>517</v>
       </c>
-      <c r="L21" s="21" t="s">
+      <c r="L21" s="20" t="s">
         <v>517</v>
       </c>
-      <c r="M21" s="21" t="s">
+      <c r="M21" s="20" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="22" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="20" t="s">
         <v>418</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="20">
         <v>50</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="20">
         <v>3</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="I22" s="20" t="s">
         <v>518</v>
       </c>
-      <c r="J22" s="21" t="s">
+      <c r="J22" s="20" t="s">
         <v>519</v>
       </c>
-      <c r="K22" s="21" t="s">
+      <c r="K22" s="20" t="s">
         <v>520</v>
       </c>
-      <c r="L22" s="21" t="s">
+      <c r="L22" s="20" t="s">
         <v>519</v>
       </c>
-      <c r="M22" s="21" t="s">
+      <c r="M22" s="20" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="23" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="20" t="s">
         <v>418</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="20">
         <v>50</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="20">
         <v>5</v>
       </c>
-      <c r="I23" s="21" t="s">
+      <c r="I23" s="20" t="s">
         <v>521</v>
       </c>
-      <c r="J23" s="21" t="s">
+      <c r="J23" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="K23" s="21" t="s">
+      <c r="K23" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="L23" s="21" t="s">
+      <c r="L23" s="20" t="s">
         <v>523</v>
       </c>
-      <c r="M23" s="21" t="s">
+      <c r="M23" s="20" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="24" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="20" t="s">
         <v>418</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="20">
         <v>50</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="20">
         <v>7</v>
       </c>
-      <c r="I24" s="21" t="s">
+      <c r="I24" s="20" t="s">
         <v>525</v>
       </c>
-      <c r="J24" s="21" t="s">
+      <c r="J24" s="20" t="s">
         <v>526</v>
       </c>
-      <c r="K24" s="21" t="s">
+      <c r="K24" s="20" t="s">
         <v>527</v>
       </c>
-      <c r="L24" s="21" t="s">
+      <c r="L24" s="20" t="s">
         <v>519</v>
       </c>
-      <c r="M24" s="21" t="s">
+      <c r="M24" s="20" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="25" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="20" t="s">
         <v>418</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="20">
         <v>100</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="20">
         <v>3</v>
       </c>
-      <c r="I25" s="21" t="s">
+      <c r="I25" s="20" t="s">
         <v>528</v>
       </c>
-      <c r="J25" s="21" t="s">
+      <c r="J25" s="20" t="s">
         <v>509</v>
       </c>
-      <c r="K25" s="21" t="s">
+      <c r="K25" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="L25" s="21" t="s">
+      <c r="L25" s="20" t="s">
         <v>509</v>
       </c>
-      <c r="M25" s="21" t="s">
+      <c r="M25" s="20" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="26" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="20" t="s">
         <v>418</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="20">
         <v>100</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="20">
         <v>5</v>
       </c>
-      <c r="I26" s="21" t="s">
+      <c r="I26" s="20" t="s">
         <v>529</v>
       </c>
-      <c r="J26" s="21" t="s">
+      <c r="J26" s="20" t="s">
         <v>530</v>
       </c>
-      <c r="K26" s="21" t="s">
+      <c r="K26" s="20" t="s">
         <v>531</v>
       </c>
-      <c r="L26" s="21" t="s">
+      <c r="L26" s="20" t="s">
         <v>532</v>
       </c>
-      <c r="M26" s="21" t="s">
+      <c r="M26" s="20" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="27" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="20" t="s">
         <v>418</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="20">
         <v>100</v>
       </c>
-      <c r="H27" s="21">
+      <c r="H27" s="20">
         <v>7</v>
       </c>
-      <c r="I27" s="21" t="s">
+      <c r="I27" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="J27" s="21" t="s">
+      <c r="J27" s="20" t="s">
         <v>509</v>
       </c>
-      <c r="K27" s="21" t="s">
+      <c r="K27" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="L27" s="21" t="s">
+      <c r="L27" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="M27" s="21" t="s">
+      <c r="M27" s="20" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="28" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="20">
         <v>30</v>
       </c>
-      <c r="H28" s="21">
+      <c r="H28" s="20">
         <v>3</v>
       </c>
-      <c r="I28" s="21" t="s">
+      <c r="I28" s="20" t="s">
         <v>534</v>
       </c>
-      <c r="J28" s="21" t="s">
+      <c r="J28" s="20" t="s">
         <v>535</v>
       </c>
-      <c r="K28" s="21" t="s">
+      <c r="K28" s="20" t="s">
         <v>536</v>
       </c>
-      <c r="L28" s="21" t="s">
+      <c r="L28" s="20" t="s">
         <v>537</v>
       </c>
-      <c r="M28" s="21" t="s">
+      <c r="M28" s="20" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="29" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="20">
         <v>30</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="20">
         <v>5</v>
       </c>
-      <c r="I29" s="21" t="s">
+      <c r="I29" s="20" t="s">
         <v>539</v>
       </c>
-      <c r="J29" s="21" t="s">
+      <c r="J29" s="20" t="s">
         <v>540</v>
       </c>
-      <c r="K29" s="21" t="s">
+      <c r="K29" s="20" t="s">
         <v>541</v>
       </c>
-      <c r="L29" s="21" t="s">
+      <c r="L29" s="20" t="s">
         <v>542</v>
       </c>
-      <c r="M29" s="21" t="s">
+      <c r="M29" s="20" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="30" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="20">
         <v>30</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="20">
         <v>7</v>
       </c>
-      <c r="I30" s="21" t="s">
+      <c r="I30" s="20" t="s">
         <v>544</v>
       </c>
-      <c r="J30" s="21" t="s">
+      <c r="J30" s="20" t="s">
         <v>545</v>
       </c>
-      <c r="K30" s="21" t="s">
+      <c r="K30" s="20" t="s">
         <v>546</v>
       </c>
-      <c r="L30" s="21" t="s">
+      <c r="L30" s="20" t="s">
         <v>547</v>
       </c>
-      <c r="M30" s="21" t="s">
+      <c r="M30" s="20" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="31" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="20">
         <v>50</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="20">
         <v>3</v>
       </c>
-      <c r="I31" s="21" t="s">
+      <c r="I31" s="20" t="s">
         <v>549</v>
       </c>
-      <c r="J31" s="21" t="s">
+      <c r="J31" s="20" t="s">
         <v>550</v>
       </c>
-      <c r="K31" s="21" t="s">
+      <c r="K31" s="20" t="s">
         <v>551</v>
       </c>
-      <c r="L31" s="21" t="s">
+      <c r="L31" s="20" t="s">
         <v>552</v>
       </c>
-      <c r="M31" s="21" t="s">
+      <c r="M31" s="20" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="32" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="20">
         <v>50</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="20">
         <v>5</v>
       </c>
-      <c r="I32" s="21" t="s">
+      <c r="I32" s="20" t="s">
         <v>554</v>
       </c>
-      <c r="J32" s="21" t="s">
+      <c r="J32" s="20" t="s">
         <v>555</v>
       </c>
-      <c r="K32" s="21" t="s">
+      <c r="K32" s="20" t="s">
         <v>556</v>
       </c>
-      <c r="L32" s="21" t="s">
+      <c r="L32" s="20" t="s">
         <v>557</v>
       </c>
-      <c r="M32" s="21" t="s">
+      <c r="M32" s="20" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="33" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G33" s="20">
         <v>50</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H33" s="20">
         <v>7</v>
       </c>
-      <c r="I33" s="21" t="s">
+      <c r="I33" s="20" t="s">
         <v>559</v>
       </c>
-      <c r="J33" s="21" t="s">
+      <c r="J33" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="K33" s="21" t="s">
+      <c r="K33" s="20" t="s">
         <v>561</v>
       </c>
-      <c r="L33" s="21" t="s">
+      <c r="L33" s="20" t="s">
         <v>562</v>
       </c>
-      <c r="M33" s="21" t="s">
+      <c r="M33" s="20" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="34" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="20">
         <v>100</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="20">
         <v>3</v>
       </c>
-      <c r="I34" s="21" t="s">
+      <c r="I34" s="20" t="s">
         <v>564</v>
       </c>
-      <c r="J34" s="21" t="s">
+      <c r="J34" s="20" t="s">
         <v>565</v>
       </c>
-      <c r="K34" s="21" t="s">
+      <c r="K34" s="20" t="s">
         <v>566</v>
       </c>
-      <c r="L34" s="21" t="s">
+      <c r="L34" s="20" t="s">
         <v>567</v>
       </c>
-      <c r="M34" s="21" t="s">
+      <c r="M34" s="20" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="35" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="20">
         <v>100</v>
       </c>
-      <c r="H35" s="21">
+      <c r="H35" s="20">
         <v>5</v>
       </c>
-      <c r="I35" s="21" t="s">
+      <c r="I35" s="20" t="s">
         <v>569</v>
       </c>
-      <c r="J35" s="21" t="s">
+      <c r="J35" s="20" t="s">
         <v>570</v>
       </c>
-      <c r="K35" s="21" t="s">
+      <c r="K35" s="20" t="s">
         <v>571</v>
       </c>
-      <c r="L35" s="21" t="s">
+      <c r="L35" s="20" t="s">
         <v>572</v>
       </c>
-      <c r="M35" s="21" t="s">
+      <c r="M35" s="20" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="36" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F36" s="22" t="s">
+      <c r="F36" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="G36" s="22">
+      <c r="G36" s="21">
         <v>100</v>
       </c>
-      <c r="H36" s="22">
+      <c r="H36" s="21">
         <v>7</v>
       </c>
-      <c r="I36" s="22" t="s">
+      <c r="I36" s="21" t="s">
         <v>574</v>
       </c>
-      <c r="J36" s="22" t="s">
+      <c r="J36" s="21" t="s">
         <v>575</v>
       </c>
-      <c r="K36" s="22" t="s">
+      <c r="K36" s="21" t="s">
         <v>576</v>
       </c>
-      <c r="L36" s="22" t="s">
+      <c r="L36" s="21" t="s">
         <v>577</v>
       </c>
-      <c r="M36" s="22" t="s">
+      <c r="M36" s="21" t="s">
         <v>578</v>
       </c>
     </row>
@@ -7963,147 +7984,147 @@
   </cols>
   <sheetData>
     <row r="8" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H8" s="23"/>
+      <c r="H8" s="22"/>
     </row>
     <row r="11" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="23" t="s">
         <v>585</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="23" t="s">
         <v>579</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="23" t="s">
         <v>580</v>
       </c>
-      <c r="K11" s="24" t="s">
+      <c r="K11" s="23" t="s">
         <v>581</v>
       </c>
-      <c r="L11" s="24" t="s">
+      <c r="L11" s="23" t="s">
         <v>582</v>
       </c>
-      <c r="M11" s="24" t="s">
+      <c r="M11" s="23" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="12" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H12" s="25">
+      <c r="H12" s="24">
         <v>1</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="24" t="s">
         <v>584</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
     </row>
     <row r="13" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H13" s="25">
+      <c r="H13" s="24">
         <v>2</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="24" t="s">
         <v>584</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
     </row>
     <row r="14" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H14" s="25">
+      <c r="H14" s="24">
         <v>3</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="24" t="s">
         <v>584</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
     </row>
     <row r="15" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H15" s="25">
+      <c r="H15" s="24">
         <v>4</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="24" t="s">
         <v>584</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
     </row>
     <row r="16" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H16" s="25">
+      <c r="H16" s="24">
         <v>5</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="24" t="s">
         <v>584</v>
       </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
     </row>
     <row r="17" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H17" s="25">
+      <c r="H17" s="24">
         <v>6</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="24" t="s">
         <v>586</v>
       </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
     </row>
     <row r="18" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H18" s="25">
+      <c r="H18" s="24">
         <v>7</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="I18" s="24" t="s">
         <v>586</v>
       </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
     </row>
     <row r="19" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H19" s="25">
+      <c r="H19" s="24">
         <v>8</v>
       </c>
-      <c r="I19" s="25" t="s">
+      <c r="I19" s="24" t="s">
         <v>586</v>
       </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
     </row>
     <row r="20" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H20" s="25">
+      <c r="H20" s="24">
         <v>9</v>
       </c>
-      <c r="I20" s="25" t="s">
+      <c r="I20" s="24" t="s">
         <v>586</v>
       </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
     </row>
     <row r="21" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="H21" s="26">
+      <c r="H21" s="25">
         <v>10</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="I21" s="25" t="s">
         <v>586</v>
       </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/File Naskah/File Skripsi/hasil pengujian training.xlsx
+++ b/File Naskah/File Skripsi/hasil pengujian training.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SKRIPSI\Skripsi\File Naskah\File Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22A7D49-78E8-4B4B-A391-4845BD38B93C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263017AB-C1EC-45A3-A560-1235B5D52007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="4" xr2:uid="{6E07EE4A-E083-4B73-A265-D447A504391A}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="4" xr2:uid="{6E07EE4A-E083-4B73-A265-D447A504391A}"/>
   </bookViews>
   <sheets>
     <sheet name="ADAM" sheetId="1" r:id="rId1"/>
@@ -7222,8 +7222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB71A52F-7C6D-435D-AAFE-E90B99DD9484}">
   <dimension ref="F9:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/File Naskah/File Skripsi/hasil pengujian training.xlsx
+++ b/File Naskah/File Skripsi/hasil pengujian training.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SKRIPSI\Skripsi\File Naskah\File Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263017AB-C1EC-45A3-A560-1235B5D52007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C8F03D-8211-4B5B-A827-C8E1956BD60F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="4" xr2:uid="{6E07EE4A-E083-4B73-A265-D447A504391A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{6E07EE4A-E083-4B73-A265-D447A504391A}"/>
   </bookViews>
   <sheets>
     <sheet name="ADAM" sheetId="1" r:id="rId1"/>
@@ -1964,7 +1964,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2042,6 +2042,12 @@
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2060,9 +2066,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2100,7 +2106,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2206,7 +2212,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2348,7 +2354,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7222,8 +7228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB71A52F-7C6D-435D-AAFE-E90B99DD9484}">
   <dimension ref="F9:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7289,28 +7295,28 @@
       </c>
     </row>
     <row r="11" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="31" t="s">
         <v>405</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="31">
         <v>30</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="31">
         <v>5</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="31" t="s">
         <v>490</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="31" t="s">
         <v>491</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="31" t="s">
         <v>491</v>
       </c>
-      <c r="L11" s="20" t="s">
+      <c r="L11" s="31" t="s">
         <v>491</v>
       </c>
-      <c r="M11" s="20" t="s">
+      <c r="M11" s="31" t="s">
         <v>491</v>
       </c>
     </row>
@@ -7471,28 +7477,28 @@
       </c>
     </row>
     <row r="18" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="21" t="s">
         <v>405</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="21">
         <v>100</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="21">
         <v>7</v>
       </c>
-      <c r="I18" s="20" t="s">
+      <c r="I18" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="K18" s="20" t="s">
+      <c r="K18" s="21" t="s">
         <v>508</v>
       </c>
-      <c r="L18" s="20" t="s">
+      <c r="L18" s="21" t="s">
         <v>509</v>
       </c>
-      <c r="M18" s="20" t="s">
+      <c r="M18" s="21" t="s">
         <v>508</v>
       </c>
     </row>
@@ -7653,28 +7659,28 @@
       </c>
     </row>
     <row r="25" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="31" t="s">
         <v>418</v>
       </c>
-      <c r="G25" s="20">
+      <c r="G25" s="31">
         <v>100</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="31">
         <v>3</v>
       </c>
-      <c r="I25" s="20" t="s">
+      <c r="I25" s="31" t="s">
         <v>528</v>
       </c>
-      <c r="J25" s="20" t="s">
+      <c r="J25" s="31" t="s">
         <v>509</v>
       </c>
-      <c r="K25" s="20" t="s">
+      <c r="K25" s="31" t="s">
         <v>502</v>
       </c>
-      <c r="L25" s="20" t="s">
+      <c r="L25" s="31" t="s">
         <v>509</v>
       </c>
-      <c r="M25" s="20" t="s">
+      <c r="M25" s="31" t="s">
         <v>502</v>
       </c>
     </row>
@@ -7705,28 +7711,28 @@
       </c>
     </row>
     <row r="27" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="21" t="s">
         <v>418</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G27" s="21">
         <v>100</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="21">
         <v>7</v>
       </c>
-      <c r="I27" s="20" t="s">
+      <c r="I27" s="21" t="s">
         <v>533</v>
       </c>
-      <c r="J27" s="20" t="s">
+      <c r="J27" s="21" t="s">
         <v>509</v>
       </c>
-      <c r="K27" s="20" t="s">
+      <c r="K27" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="L27" s="20" t="s">
+      <c r="L27" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="M27" s="20" t="s">
+      <c r="M27" s="21" t="s">
         <v>502</v>
       </c>
     </row>
@@ -7939,28 +7945,28 @@
       </c>
     </row>
     <row r="36" spans="6:13" x14ac:dyDescent="0.25">
-      <c r="F36" s="21" t="s">
+      <c r="F36" s="32" t="s">
         <v>435</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="32">
         <v>100</v>
       </c>
-      <c r="H36" s="21">
+      <c r="H36" s="32">
         <v>7</v>
       </c>
-      <c r="I36" s="21" t="s">
+      <c r="I36" s="32" t="s">
         <v>574</v>
       </c>
-      <c r="J36" s="21" t="s">
+      <c r="J36" s="32" t="s">
         <v>575</v>
       </c>
-      <c r="K36" s="21" t="s">
+      <c r="K36" s="32" t="s">
         <v>576</v>
       </c>
-      <c r="L36" s="21" t="s">
+      <c r="L36" s="32" t="s">
         <v>577</v>
       </c>
-      <c r="M36" s="21" t="s">
+      <c r="M36" s="32" t="s">
         <v>578</v>
       </c>
     </row>
